--- a/AfDD_2021_Annex_Table_Tab22.xlsx
+++ b/AfDD_2021_Annex_Table_Tab22.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab22" sheetId="1" r:id="rId1"/>
@@ -941,7 +941,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1157,6 +1157,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -5173,17 +5174,17 @@
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B109" s="76" t="s">
+      <c r="B109" s="77" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B110" s="76" t="s">
+      <c r="B110" s="77" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B111" s="76" t="s">
+      <c r="B111" s="77" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5191,10 +5192,10 @@
   <hyperlinks>
     <hyperlink ref="B107" r:id="rId1"/>
     <hyperlink ref="B108" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
-    <hyperlink ref="B109" r:id="rId3"/>
-    <hyperlink ref="B110" r:id="rId4"/>
-    <hyperlink ref="B111" r:id="rId5"/>
-    <hyperlink ref="B105" r:id="rId6"/>
+    <hyperlink ref="B105" r:id="rId3"/>
+    <hyperlink ref="B109" r:id="rId4"/>
+    <hyperlink ref="B110" r:id="rId5"/>
+    <hyperlink ref="B111" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2021_Annex_Table_Tab22.xlsx
+++ b/AfDD_2021_Annex_Table_Tab22.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11740"/>
   </bookViews>
   <sheets>
     <sheet name="Tab22" sheetId="1" r:id="rId1"/>
@@ -34,40 +34,40 @@
     <t>Country (Resource-rich countries are shaded)</t>
   </si>
   <si>
-    <t>Portfolio investment inflows as a % of GDP, 2018</t>
-  </si>
-  <si>
-    <t>Net Official Development Assistance (ODA) inflows as a % of GDP, 2018</t>
-  </si>
-  <si>
-    <t>Foreign Direct Investment (FDI) inflows as a % of GDP, 2018</t>
-  </si>
-  <si>
-    <t>Remittances inflows as a % of GDP, 2018</t>
-  </si>
-  <si>
-    <t>Total financial inflows as a % of GDP, 2018</t>
-  </si>
-  <si>
-    <t>Gross private saving as a % of GDP, 2018</t>
-  </si>
-  <si>
-    <t>Portfolio investment inflows (millions of USD), 2018</t>
-  </si>
-  <si>
-    <t>Net Official Development Assistance (ODA) inflows (millions of USD), 2018</t>
-  </si>
-  <si>
-    <t>Foreign Direct Investment (FDI) inflows (millions of USD), 2018</t>
-  </si>
-  <si>
-    <t>Remittances inflows (millions of USD), 2018</t>
-  </si>
-  <si>
-    <t>Total financial inflows (millions of USD), 2018</t>
-  </si>
-  <si>
-    <t>Gross private saving (millions of USD), 2018</t>
+    <t>Portfolio investment inflows as a % of GDP, 2019</t>
+  </si>
+  <si>
+    <t>Net Official Development Assistance (ODA) inflows as a % of GDP, 2019</t>
+  </si>
+  <si>
+    <t>Foreign Direct Investment (FDI) inflows as a % of GDP, 2019</t>
+  </si>
+  <si>
+    <t>Remittances inflows as a % of GDP, 2019</t>
+  </si>
+  <si>
+    <t>Total financial inflows as a % of GDP, 2019</t>
+  </si>
+  <si>
+    <t>Gross private saving as a % of GDP, 2019</t>
+  </si>
+  <si>
+    <t>Portfolio investment inflows (millions of USD), 2019</t>
+  </si>
+  <si>
+    <t>Net Official Development Assistance (ODA) inflows (millions of USD), 2019</t>
+  </si>
+  <si>
+    <t>Foreign Direct Investment (FDI) inflows (millions of USD), 2019</t>
+  </si>
+  <si>
+    <t>Remittances inflows (millions of USD), 2019</t>
+  </si>
+  <si>
+    <t>Total financial inflows (millions of USD), 2019</t>
+  </si>
+  <si>
+    <t>Gross private saving (millions of USD), 2019</t>
   </si>
   <si>
     <t>AGO</t>
@@ -532,7 +532,7 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".</t>
   </si>
   <si>
-    <t>Source: OECD Development Assistance Committee (updated 28/10/2020), UNCTADStat Online Data Centre (retrieved 05/11/2020), FDI Online Database (updated 20/07/2020), World Bank Migration and Remittances Data (October 2020), IMF World Economic Outlook Database October 2020 (for gross private savings, October 2019)</t>
+    <t>Source: OECD Development Assistance Committee (last update 21/01/2021), UNCTADStat Online Data Centre (retrieved 05/11/2020), FDI Online Database (updated 20/07/2020), World Bank Migration and Remittances Data (October 2020), IMF World Economic Outlook Database October 2020 (for gross private savings, October 2019)</t>
   </si>
   <si>
     <t>If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2021</t>

--- a/AfDD_2021_Annex_Table_Tab22.xlsx
+++ b/AfDD_2021_Annex_Table_Tab22.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab22" sheetId="1" r:id="rId1"/>
@@ -1508,40 +1508,40 @@
         <v>16</v>
       </c>
       <c r="C3" s="16">
-        <v>3.30493452391292</v>
+        <v>1.47746335144277</v>
       </c>
       <c r="D3" s="16">
-        <v>0.15359447133133999</v>
+        <v>5.5403217442249998E-2</v>
       </c>
       <c r="E3" s="16">
-        <v>-6.0962599504975001</v>
+        <v>-4.5835468154581998</v>
       </c>
       <c r="F3" s="16">
-        <v>1.8885340136600001E-3</v>
+        <v>3.3550595948099999E-3</v>
       </c>
       <c r="G3" s="17">
-        <v>-2.6358424212395999</v>
+        <v>-3.0473251869784002</v>
       </c>
       <c r="H3" s="17">
-        <v>35.564583337477501</v>
+        <v>28.4577941919114</v>
       </c>
       <c r="I3" s="18">
-        <v>3500</v>
+        <v>1321.10620663445</v>
       </c>
       <c r="J3" s="18">
-        <v>162.66</v>
+        <v>49.54</v>
       </c>
       <c r="K3" s="18">
-        <v>-6456.0764131202995</v>
+        <v>-4098.4787476375004</v>
       </c>
       <c r="L3" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M3" s="19">
-        <v>-2791.4164131203001</v>
+        <v>-2724.8325410030998</v>
       </c>
       <c r="N3" s="19">
-        <v>37663.693722378499</v>
+        <v>25446.159796347602</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -1555,37 +1555,37 @@
         <v>0</v>
       </c>
       <c r="D4" s="16">
-        <v>0.45939925883686</v>
+        <v>0.37274436073092998</v>
       </c>
       <c r="E4" s="16">
-        <v>1.5321609414070501</v>
+        <v>1.4124225489759401</v>
       </c>
       <c r="F4" s="16">
-        <v>0.17145761934661999</v>
+        <v>0.27065376178546002</v>
       </c>
       <c r="G4" s="17">
-        <v>2.1630178195905301</v>
+        <v>2.0558206714923299</v>
       </c>
       <c r="H4" s="17">
-        <v>20.7019468354436</v>
+        <v>20.125644176132301</v>
       </c>
       <c r="I4" s="18">
         <v>0</v>
       </c>
       <c r="J4" s="18">
-        <v>85.74</v>
+        <v>68.86</v>
       </c>
       <c r="K4" s="18">
-        <v>285.95492175769999</v>
+        <v>260.92793605719999</v>
       </c>
       <c r="L4" s="18">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="M4" s="19">
-        <v>403.6949217577</v>
+        <v>379.7879360572</v>
       </c>
       <c r="N4" s="19">
-        <v>3863.70871856642</v>
+        <v>3717.96867765048</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -1599,37 +1599,37 @@
         <v>0</v>
       </c>
       <c r="D5" s="22">
-        <v>2.55585358368868</v>
+        <v>1.6001915502761599</v>
       </c>
       <c r="E5" s="22">
-        <v>0.77421585216974997</v>
+        <v>2.8389553640428402</v>
       </c>
       <c r="F5" s="22">
-        <v>2.6745083593121302</v>
+        <v>2.5943160011289299</v>
       </c>
       <c r="G5" s="23">
-        <v>6.0045777951705697</v>
+        <v>7.03346291544793</v>
       </c>
       <c r="H5" s="23">
-        <v>18.656525362650299</v>
+        <v>15.6494838574006</v>
       </c>
       <c r="I5" s="24">
         <v>0</v>
       </c>
       <c r="J5" s="24">
-        <v>120.41</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="K5" s="24">
-        <v>36.474441006600003</v>
+        <v>130.22148734929999</v>
       </c>
       <c r="L5" s="24">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="M5" s="25">
-        <v>282.88444100660001</v>
+        <v>322.62148734930003</v>
       </c>
       <c r="N5" s="25">
-        <v>878.93619307980896</v>
+        <v>717.83413362916599</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -1643,37 +1643,37 @@
         <v>23</v>
       </c>
       <c r="D6" s="22">
-        <v>6.2166201302667501</v>
+        <v>6.0127806210431798</v>
       </c>
       <c r="E6" s="22">
-        <v>5.2061361970674804</v>
+        <v>4.8438347789743599</v>
       </c>
       <c r="F6" s="22">
-        <v>22.005734974395601</v>
+        <v>20.388590268642101</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>23</v>
       </c>
       <c r="H6" s="23">
-        <v>19.728644463884802</v>
+        <v>19.473397071488499</v>
       </c>
       <c r="I6" s="24" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="24">
-        <v>153.68</v>
+        <v>145.97999999999999</v>
       </c>
       <c r="K6" s="24">
-        <v>128.69999999999999</v>
+        <v>117.6</v>
       </c>
       <c r="L6" s="24">
-        <v>544</v>
+        <v>495</v>
       </c>
       <c r="M6" s="25" t="s">
         <v>23</v>
       </c>
       <c r="N6" s="25">
-        <v>487.708436043642</v>
+        <v>472.78067896691402</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -1687,37 +1687,37 @@
         <v>0</v>
       </c>
       <c r="D7" s="22">
-        <v>18.461080508578601</v>
+        <v>15.739861931872399</v>
       </c>
       <c r="E7" s="22">
-        <v>1.4763949667779701</v>
+        <v>1.27764906716555</v>
       </c>
       <c r="F7" s="22">
-        <v>2.6190239936455399</v>
+        <v>2.8316144975347002</v>
       </c>
       <c r="G7" s="23">
-        <v>22.556499469002102</v>
+        <v>19.849125496572601</v>
       </c>
       <c r="H7" s="23">
-        <v>-2.7299116084797999</v>
+        <v>-1.7006203148217001</v>
       </c>
       <c r="I7" s="24">
         <v>0</v>
       </c>
       <c r="J7" s="24">
-        <v>1275.8399999999999</v>
+        <v>1206.22</v>
       </c>
       <c r="K7" s="24">
-        <v>102.0332343786</v>
+        <v>97.912285664699994</v>
       </c>
       <c r="L7" s="24">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="M7" s="25">
-        <v>1558.8732343786</v>
+        <v>1521.1322856647</v>
       </c>
       <c r="N7" s="25">
-        <v>-188.66341138289999</v>
+        <v>-130.32657116199999</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -1728,40 +1728,40 @@
         <v>27</v>
       </c>
       <c r="C8" s="21">
-        <v>0</v>
+        <v>1.15171371827957</v>
       </c>
       <c r="D8" s="22">
-        <v>12.394295826031501</v>
+        <v>12.5555222711965</v>
       </c>
       <c r="E8" s="22">
-        <v>18.374872198035799</v>
+        <v>14.555387100351799</v>
       </c>
       <c r="F8" s="22">
-        <v>2.0121713658531002</v>
+        <v>1.97436637419354</v>
       </c>
       <c r="G8" s="23">
-        <v>32.781339389920497</v>
+        <v>30.236989464021502</v>
       </c>
       <c r="H8" s="23">
-        <v>13.653975870471299</v>
+        <v>9.6889061160669705</v>
       </c>
       <c r="I8" s="24">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="J8" s="24">
-        <v>1823.26</v>
+        <v>1907.78</v>
       </c>
       <c r="K8" s="24">
-        <v>2703.0312939139999</v>
+        <v>2211.6544260379001</v>
       </c>
       <c r="L8" s="24">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M8" s="25">
-        <v>4822.2912939139997</v>
+        <v>4594.4344260379003</v>
       </c>
       <c r="N8" s="25">
-        <v>2008.56493947074</v>
+        <v>1472.2048920668799</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -1772,40 +1772,40 @@
         <v>29</v>
       </c>
       <c r="C9" s="21">
-        <v>-0.14201140112339999</v>
+        <v>0.55504156682668004</v>
       </c>
       <c r="D9" s="22">
-        <v>1.12183434244544</v>
+        <v>1.1898847298327899</v>
       </c>
       <c r="E9" s="22">
-        <v>1.1585420008790901</v>
+        <v>-0.13938010449650001</v>
       </c>
       <c r="F9" s="22">
-        <v>0.39880878533281</v>
+        <v>0.48907060521394002</v>
       </c>
       <c r="G9" s="23">
-        <v>2.5371737275339301</v>
+        <v>2.0946167973769199</v>
       </c>
       <c r="H9" s="23">
-        <v>13.4054352360958</v>
+        <v>16.2822113786569</v>
       </c>
       <c r="I9" s="24">
-        <v>-19.228803232770002</v>
+        <v>69.228318397129996</v>
       </c>
       <c r="J9" s="24">
-        <v>151.9</v>
+        <v>148.41</v>
       </c>
       <c r="K9" s="24">
-        <v>156.8703357306</v>
+        <v>-17.384374124400001</v>
       </c>
       <c r="L9" s="24">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="M9" s="25">
-        <v>343.54153249783002</v>
+        <v>261.25394427273</v>
       </c>
       <c r="N9" s="25">
-        <v>1815.1393082904899</v>
+        <v>2030.82107881664</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -1816,40 +1816,40 @@
         <v>31</v>
       </c>
       <c r="C10" s="21">
-        <v>1.8467555441752099</v>
+        <v>1.7210429582698701</v>
       </c>
       <c r="D10" s="22">
-        <v>0.25015518792038999</v>
+        <v>0.27649588491994997</v>
       </c>
       <c r="E10" s="22">
-        <v>1.4803117561438499</v>
+        <v>1.31617798524195</v>
       </c>
       <c r="F10" s="22">
-        <v>0.25235274845320999</v>
+        <v>0.25330561368094001</v>
       </c>
       <c r="G10" s="23">
-        <v>3.8295752366926599</v>
+        <v>3.5670224421126999</v>
       </c>
       <c r="H10" s="23">
-        <v>13.2909914628924</v>
+        <v>14.0870635327981</v>
       </c>
       <c r="I10" s="24">
-        <v>6798.5623737198903</v>
+        <v>6046.9573121642197</v>
       </c>
       <c r="J10" s="24">
-        <v>920.91</v>
+        <v>971.48</v>
       </c>
       <c r="K10" s="24">
-        <v>5449.5527783507996</v>
+        <v>4624.4470852541999</v>
       </c>
       <c r="L10" s="24">
-        <v>929</v>
+        <v>890</v>
       </c>
       <c r="M10" s="25">
-        <v>14098.025152070701</v>
+        <v>12532.8843974184</v>
       </c>
       <c r="N10" s="25">
-        <v>48928.855123274501</v>
+        <v>49495.494245076203</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
@@ -1860,40 +1860,40 @@
         <v>33</v>
       </c>
       <c r="C11" s="16">
-        <v>-0.86168821762939996</v>
+        <v>-4.6828819916500002E-2</v>
       </c>
       <c r="D11" s="16">
-        <v>3.6930764641431999</v>
+        <v>4.0416078364369197</v>
       </c>
       <c r="E11" s="16">
-        <v>1.5124479412299101</v>
+        <v>3.11810036246316</v>
       </c>
       <c r="F11" s="16">
-        <v>0.39622105408828001</v>
+        <v>0.40570079072685999</v>
       </c>
       <c r="G11" s="17">
-        <v>4.7400572418320204</v>
+        <v>7.5185801697104901</v>
       </c>
       <c r="H11" s="17">
-        <v>41.837970427821503</v>
+        <v>36.505610594237403</v>
       </c>
       <c r="I11" s="18">
-        <v>-232.7</v>
+        <v>-11.31184473067</v>
       </c>
       <c r="J11" s="18">
-        <v>997.32</v>
+        <v>976.28</v>
       </c>
       <c r="K11" s="18">
-        <v>408.43849169999999</v>
+        <v>753.19999986669995</v>
       </c>
       <c r="L11" s="18">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="M11" s="19">
-        <v>1280.0584917000001</v>
+        <v>1816.16815513603</v>
       </c>
       <c r="N11" s="19">
-        <v>11298.3971689185</v>
+        <v>8818.1978443415792</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1904,37 +1904,37 @@
         <v>35</v>
       </c>
       <c r="C12" s="21">
-        <v>0.41880478390365</v>
+        <v>-0.77545197862990001</v>
       </c>
       <c r="D12" s="22">
-        <v>3.8126553704455599</v>
+        <v>5.2136577892864597</v>
       </c>
       <c r="E12" s="22">
-        <v>3.5736880738229502</v>
+        <v>1.4974245104578101</v>
       </c>
       <c r="F12" s="22">
-        <v>8.3026746105645906</v>
+        <v>9.2519442967571504</v>
       </c>
       <c r="G12" s="23">
-        <v>16.107822838736801</v>
+        <v>15.187574617871499</v>
       </c>
       <c r="H12" s="23" t="s">
         <v>23</v>
       </c>
       <c r="I12" s="24">
-        <v>87.264924875099993</v>
+        <v>-145</v>
       </c>
       <c r="J12" s="24">
-        <v>794.43</v>
+        <v>974.89</v>
       </c>
       <c r="K12" s="24">
-        <v>744.63719918000004</v>
+        <v>280</v>
       </c>
       <c r="L12" s="24">
         <v>1730</v>
       </c>
       <c r="M12" s="25">
-        <v>3356.3321240550999</v>
+        <v>2839.89</v>
       </c>
       <c r="N12" s="25" t="s">
         <v>23</v>
@@ -1948,40 +1948,40 @@
         <v>37</v>
       </c>
       <c r="C13" s="30">
-        <v>1.7115965042580601</v>
+        <v>1.35153977652766</v>
       </c>
       <c r="D13" s="30">
-        <v>1.2921576787501801</v>
+        <v>1.3240818374664001</v>
       </c>
       <c r="E13" s="30">
-        <v>0.73460036929654005</v>
+        <v>0.79306065730539999</v>
       </c>
       <c r="F13" s="30">
-        <v>0.73608317642487997</v>
+        <v>0.75432152093120997</v>
       </c>
       <c r="G13" s="31">
-        <v>4.4744377287296704</v>
+        <v>4.2230037922306698</v>
       </c>
       <c r="H13" s="31">
-        <v>19.10375338027</v>
+        <v>17.861787339541799</v>
       </c>
       <c r="I13" s="32">
-        <v>10133.8984953622</v>
+        <v>7455.9799924651297</v>
       </c>
       <c r="J13" s="32">
-        <v>6486.15</v>
+        <v>6522.84</v>
       </c>
       <c r="K13" s="32">
-        <v>3559.616282898</v>
+        <v>4360.1000984681004</v>
       </c>
       <c r="L13" s="32">
-        <v>4001</v>
+        <v>3963</v>
       </c>
       <c r="M13" s="33">
-        <v>24180.664778260201</v>
+        <v>22301.920090933199</v>
       </c>
       <c r="N13" s="33">
-        <v>106756.34019864</v>
+        <v>92041.134775733502</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -1995,37 +1995,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="22">
-        <v>14.1543201947614</v>
+        <v>18.931811099876398</v>
       </c>
       <c r="E14" s="22">
-        <v>3.0888599477130001E-2</v>
+        <v>3.3590849345700002E-2</v>
       </c>
       <c r="F14" s="22">
-        <v>1.50714827158665</v>
+        <v>1.54298728698011</v>
       </c>
       <c r="G14" s="23">
-        <v>15.692357065825201</v>
+        <v>20.508389236202198</v>
       </c>
       <c r="H14" s="23">
-        <v>6.0765728758099997E-3</v>
+        <v>1.2376705181677501</v>
       </c>
       <c r="I14" s="24">
         <v>0</v>
       </c>
       <c r="J14" s="24">
-        <v>450.79</v>
+        <v>588.94000000000005</v>
       </c>
       <c r="K14" s="24">
-        <v>0.98374712220000005</v>
+        <v>1.0449605011</v>
       </c>
       <c r="L14" s="24">
         <v>48</v>
       </c>
       <c r="M14" s="25">
-        <v>499.77374712220001</v>
+        <v>637.98496050109998</v>
       </c>
       <c r="N14" s="25">
-        <v>0.19352807121740001</v>
+        <v>38.502057258244903</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
@@ -2036,40 +2036,40 @@
         <v>41</v>
       </c>
       <c r="C15" s="21">
-        <v>5.8157713497860003E-2</v>
+        <v>5.6882669038460003E-2</v>
       </c>
       <c r="D15" s="22">
-        <v>3.0119312860323699</v>
+        <v>3.4357154111837702</v>
       </c>
       <c r="E15" s="22">
-        <v>1.97638410077535</v>
+        <v>2.01126350829731</v>
       </c>
       <c r="F15" s="22">
-        <v>0.8627881073568</v>
+        <v>0.85943061617964001</v>
       </c>
       <c r="G15" s="23">
-        <v>5.9092612076623903</v>
+        <v>6.36329220469917</v>
       </c>
       <c r="H15" s="23">
-        <v>21.4734642872363</v>
+        <v>20.897426495529601</v>
       </c>
       <c r="I15" s="24">
-        <v>22.5138433674</v>
+        <v>22.10627722724</v>
       </c>
       <c r="J15" s="24">
-        <v>1165.97</v>
+        <v>1335.22</v>
       </c>
       <c r="K15" s="24">
-        <v>765.09201277850002</v>
+        <v>781.6361194548</v>
       </c>
       <c r="L15" s="24">
         <v>334</v>
       </c>
       <c r="M15" s="25">
-        <v>2287.5758561459002</v>
+        <v>2472.96239668204</v>
       </c>
       <c r="N15" s="25">
-        <v>8312.7444743173091</v>
+        <v>8121.3542060362897</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="D16" s="22">
-        <v>28.773232732062901</v>
+        <v>33.107904966717697</v>
       </c>
       <c r="E16" s="22">
-        <v>0.78971265593180995</v>
+        <v>1.12436252150486</v>
       </c>
       <c r="F16" s="22" t="s">
         <v>23</v>
@@ -2095,16 +2095,16 @@
         <v>23</v>
       </c>
       <c r="H16" s="23">
-        <v>4.1090329086936102</v>
+        <v>6.2109210376867798</v>
       </c>
       <c r="I16" s="24">
         <v>0</v>
       </c>
       <c r="J16" s="24">
-        <v>655.96</v>
+        <v>753.85</v>
       </c>
       <c r="K16" s="24">
-        <v>18.003535390300001</v>
+        <v>25.601157418100001</v>
       </c>
       <c r="L16" s="24" t="s">
         <v>23</v>
@@ -2113,7 +2113,7 @@
         <v>23</v>
       </c>
       <c r="N16" s="25">
-        <v>93.675995738328794</v>
+        <v>141.419483623834</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
@@ -2127,10 +2127,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="16">
-        <v>7.9298018007895799</v>
+        <v>6.4662357020865899</v>
       </c>
       <c r="E17" s="16">
-        <v>4.1761167836389896</v>
+        <v>5.1821243394419598</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>23</v>
@@ -2139,16 +2139,16 @@
         <v>23</v>
       </c>
       <c r="H17" s="17">
-        <v>16.8985425610074</v>
+        <v>22.518454938719898</v>
       </c>
       <c r="I17" s="18">
         <v>0</v>
       </c>
       <c r="J17" s="18">
-        <v>875.16</v>
+        <v>707.05</v>
       </c>
       <c r="K17" s="18">
-        <v>460.89050599040002</v>
+        <v>566.63895085360002</v>
       </c>
       <c r="L17" s="18" t="s">
         <v>23</v>
@@ -2157,7 +2157,7 @@
         <v>23</v>
       </c>
       <c r="N17" s="19">
-        <v>1864.9808506208401</v>
+        <v>2462.2785648355102</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
@@ -2168,40 +2168,40 @@
         <v>47</v>
       </c>
       <c r="C18" s="16">
-        <v>-1.07517949958E-2</v>
+        <v>-1.0921250540900001E-2</v>
       </c>
       <c r="D18" s="16">
-        <v>1.08985216238635</v>
+        <v>1.4931828857060101</v>
       </c>
       <c r="E18" s="16">
-        <v>44.262994169164799</v>
+        <v>38.626666010685803</v>
       </c>
       <c r="F18" s="16">
         <v>0</v>
       </c>
       <c r="G18" s="17">
-        <v>45.3420945365554</v>
+        <v>40.108927645850898</v>
       </c>
       <c r="H18" s="17">
-        <v>12.690683286922701</v>
+        <v>11.835403173770599</v>
       </c>
       <c r="I18" s="18">
-        <v>-1.44093596479</v>
+        <v>-1.3697066905699999</v>
       </c>
       <c r="J18" s="18">
-        <v>146.06</v>
+        <v>187.27</v>
       </c>
       <c r="K18" s="18">
-        <v>5932.0457870105001</v>
+        <v>4844.4271716929998</v>
       </c>
       <c r="L18" s="18">
         <v>0</v>
       </c>
       <c r="M18" s="19">
-        <v>6076.6648510457098</v>
+        <v>5030.3274650024296</v>
       </c>
       <c r="N18" s="19">
-        <v>1700.7822389683299</v>
+        <v>1484.3566542112201</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
@@ -2215,37 +2215,37 @@
         <v>0</v>
       </c>
       <c r="D19" s="16">
-        <v>5.3360535573254504</v>
+        <v>6.0734103391544103</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F19" s="16">
-        <v>3.8705364110232998</v>
+        <v>4.1673359259648901</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>23</v>
       </c>
       <c r="H19" s="17">
-        <v>7.4521175284357204</v>
+        <v>10.2068970274041</v>
       </c>
       <c r="I19" s="18">
         <v>0</v>
       </c>
       <c r="J19" s="18">
-        <v>2513.25</v>
+        <v>3025.53</v>
       </c>
       <c r="K19" s="18" t="s">
         <v>23</v>
       </c>
       <c r="L19" s="18">
-        <v>1823</v>
+        <v>2076</v>
       </c>
       <c r="M19" s="19" t="s">
         <v>23</v>
       </c>
       <c r="N19" s="19">
-        <v>3509.9037476168901</v>
+        <v>5084.6676642667899</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
@@ -2256,13 +2256,13 @@
         <v>51</v>
       </c>
       <c r="C20" s="16">
-        <v>1.373114916518E-2</v>
+        <v>1.5893220480920001E-2</v>
       </c>
       <c r="D20" s="16">
-        <v>4.4202448007410002E-2</v>
+        <v>0.54208251984955003</v>
       </c>
       <c r="E20" s="16">
-        <v>2.9082404343547301</v>
+        <v>3.8267042088645802</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>23</v>
@@ -2271,16 +2271,16 @@
         <v>23</v>
       </c>
       <c r="H20" s="17">
-        <v>-2.3750218003715999</v>
+        <v>-0.38601305349339998</v>
       </c>
       <c r="I20" s="18">
-        <v>1.8700665166899999</v>
+        <v>1.8784568749699999</v>
       </c>
       <c r="J20" s="18">
-        <v>6.02</v>
+        <v>64.069999999999993</v>
       </c>
       <c r="K20" s="18">
-        <v>396.07777858550003</v>
+        <v>452.28711438620002</v>
       </c>
       <c r="L20" s="18" t="s">
         <v>23</v>
@@ -2289,7 +2289,7 @@
         <v>23</v>
       </c>
       <c r="N20" s="19">
-        <v>-323.45790522371999</v>
+        <v>-45.623784998984</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
@@ -2303,37 +2303,37 @@
         <v>0</v>
       </c>
       <c r="D21" s="16">
-        <v>0.68960151268918002</v>
+        <v>0.69160798906262</v>
       </c>
       <c r="E21" s="16">
-        <v>8.1722893984490792</v>
+        <v>9.2036832888552205</v>
       </c>
       <c r="F21" s="16">
-        <v>0.10666690064798</v>
+        <v>0.10666561394163</v>
       </c>
       <c r="G21" s="17">
-        <v>8.9685578117862406</v>
+        <v>10.0019568918595</v>
       </c>
       <c r="H21" s="17">
-        <v>24.6499383128271</v>
+        <v>24.908169085798999</v>
       </c>
       <c r="I21" s="18">
         <v>0</v>
       </c>
       <c r="J21" s="18">
-        <v>116.37</v>
+        <v>116.71</v>
       </c>
       <c r="K21" s="18">
-        <v>1379.0708108932999</v>
+        <v>1553.1368833639001</v>
       </c>
       <c r="L21" s="18">
         <v>18</v>
       </c>
       <c r="M21" s="19">
-        <v>1513.4408108933001</v>
+        <v>1687.8468833638999</v>
       </c>
       <c r="N21" s="19">
-        <v>4159.6679657467403</v>
+        <v>4203.29501679655</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2344,40 +2344,40 @@
         <v>55</v>
       </c>
       <c r="C22" s="21">
-        <v>2.287007185862E-2</v>
+        <v>0</v>
       </c>
       <c r="D22" s="22">
-        <v>11.127340058664901</v>
+        <v>12.1783511719927</v>
       </c>
       <c r="E22" s="22">
-        <v>7.4155556497156496</v>
+        <v>13.6188354674231</v>
       </c>
       <c r="F22" s="22">
-        <v>4.3306404552641702</v>
+        <v>2.6077839768721001</v>
       </c>
       <c r="G22" s="23">
-        <v>22.896406235503299</v>
+        <v>28.404970616287901</v>
       </c>
       <c r="H22" s="23">
-        <v>1.38402836101716</v>
+        <v>2.5126285077375101</v>
       </c>
       <c r="I22" s="24">
-        <v>9.5057832140000006E-2</v>
+        <v>0</v>
       </c>
       <c r="J22" s="24">
-        <v>46.25</v>
+        <v>51.37</v>
       </c>
       <c r="K22" s="24">
-        <v>30.8222312782</v>
+        <v>57.446165583599999</v>
       </c>
       <c r="L22" s="24">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M22" s="25">
-        <v>95.167289110339993</v>
+        <v>119.8161655836</v>
       </c>
       <c r="N22" s="25">
-        <v>5.7526157517939804</v>
+        <v>10.598620832950999</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2388,40 +2388,40 @@
         <v>56</v>
       </c>
       <c r="C23" s="30">
-        <v>1.8225123761289999E-2</v>
+        <v>1.8060273185150001E-2</v>
       </c>
       <c r="D23" s="30">
-        <v>4.2158732572998696</v>
+        <v>4.7644168501598001</v>
       </c>
       <c r="E23" s="30">
-        <v>7.3273196386633499</v>
+        <v>7.1341130410451497</v>
       </c>
       <c r="F23" s="30">
-        <v>1.85680183505829</v>
+        <v>1.9739102011277301</v>
       </c>
       <c r="G23" s="31">
-        <v>13.4182198547828</v>
+        <v>13.8905003655178</v>
       </c>
       <c r="H23" s="31">
-        <v>13.471498147162199</v>
+        <v>14.953823423772199</v>
       </c>
       <c r="I23" s="32">
-        <v>23.038031751439998</v>
+        <v>22.61502741164</v>
       </c>
       <c r="J23" s="32">
-        <v>5975.83</v>
+        <v>6830.01</v>
       </c>
       <c r="K23" s="32">
-        <v>8982.9864090489009</v>
+        <v>8282.2185232542997</v>
       </c>
       <c r="L23" s="32">
-        <v>2241</v>
+        <v>2487</v>
       </c>
       <c r="M23" s="33">
-        <v>17222.8544408003</v>
+        <v>17621.843550665901</v>
       </c>
       <c r="N23" s="33">
-        <v>19324.243511607699</v>
+        <v>21500.848482862399</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
@@ -2435,37 +2435,37 @@
         <v>0</v>
       </c>
       <c r="D24" s="22">
-        <v>7.7001687729872597</v>
+        <v>6.5727051000768197</v>
       </c>
       <c r="E24" s="22">
-        <v>0.58186333404727997</v>
+        <v>0.66026034382146004</v>
       </c>
       <c r="F24" s="22">
-        <v>13.8245127216315</v>
+        <v>11.340940548445399</v>
       </c>
       <c r="G24" s="23">
-        <v>22.106544828665999</v>
+        <v>18.5739059923437</v>
       </c>
       <c r="H24" s="23">
-        <v>8.1649734128544793</v>
+        <v>12.5063174268185</v>
       </c>
       <c r="I24" s="24">
         <v>0</v>
       </c>
       <c r="J24" s="24">
-        <v>90.79</v>
+        <v>78.239999999999995</v>
       </c>
       <c r="K24" s="24">
-        <v>6.8605473016999996</v>
+        <v>7.8595903077999996</v>
       </c>
       <c r="L24" s="24">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="M24" s="25">
-        <v>260.65054730169999</v>
+        <v>221.09959030780001</v>
       </c>
       <c r="N24" s="25">
-        <v>96.270349132292395</v>
+        <v>148.87238368002301</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
@@ -2479,16 +2479,16 @@
         <v>0</v>
       </c>
       <c r="D25" s="22">
-        <v>5.9482804816419801</v>
+        <v>8.1429399724166895</v>
       </c>
       <c r="E25" s="22">
-        <v>5.6426971924123404</v>
+        <v>5.4363866676535499</v>
       </c>
       <c r="F25" s="22">
-        <v>1.99150063555895</v>
+        <v>1.7631879711266301</v>
       </c>
       <c r="G25" s="23">
-        <v>13.5824783096133</v>
+        <v>15.342514611196901</v>
       </c>
       <c r="H25" s="23" t="s">
         <v>23</v>
@@ -2497,16 +2497,16 @@
         <v>0</v>
       </c>
       <c r="J25" s="24">
-        <v>179.21</v>
+        <v>272.48</v>
       </c>
       <c r="K25" s="24">
-        <v>170.0033760972</v>
+        <v>181.91300000000001</v>
       </c>
       <c r="L25" s="24">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M25" s="25">
-        <v>409.21337609720001</v>
+        <v>513.39300000000003</v>
       </c>
       <c r="N25" s="25" t="s">
         <v>23</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="22">
-        <v>4.1971255453063199</v>
+        <v>13.973258074616901</v>
       </c>
       <c r="E26" s="22">
-        <v>3.0421432067814802</v>
+        <v>3.3865207414725398</v>
       </c>
       <c r="F26" s="22" t="s">
         <v>23</v>
@@ -2535,16 +2535,16 @@
         <v>23</v>
       </c>
       <c r="H26" s="23">
-        <v>9.2108020840784501</v>
+        <v>15.1641973264413</v>
       </c>
       <c r="I26" s="24">
         <v>0</v>
       </c>
       <c r="J26" s="24">
-        <v>84.18</v>
+        <v>276.93</v>
       </c>
       <c r="K26" s="24">
-        <v>61.015000000000001</v>
+        <v>67.116</v>
       </c>
       <c r="L26" s="24" t="s">
         <v>23</v>
@@ -2553,7 +2553,7 @@
         <v>23</v>
       </c>
       <c r="N26" s="25">
-        <v>184.73722338490001</v>
+        <v>300.53271350078501</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
@@ -2567,37 +2567,37 @@
         <v>0</v>
       </c>
       <c r="D27" s="22">
-        <v>6.16024638404095</v>
+        <v>5.1833705123824796</v>
       </c>
       <c r="E27" s="22">
-        <v>4.1272115988469302</v>
+        <v>2.7115641309212801</v>
       </c>
       <c r="F27" s="22">
-        <v>0.54359552218748997</v>
+        <v>0.57222181054665999</v>
       </c>
       <c r="G27" s="23">
-        <v>10.831053505075401</v>
+        <v>8.4671564538504196</v>
       </c>
       <c r="H27" s="23">
-        <v>29.500732746423399</v>
+        <v>29.908589477780001</v>
       </c>
       <c r="I27" s="24">
         <v>0</v>
       </c>
       <c r="J27" s="24">
-        <v>4940.93</v>
+        <v>4809.97</v>
       </c>
       <c r="K27" s="24">
-        <v>3310.3</v>
+        <v>2516.2280202911002</v>
       </c>
       <c r="L27" s="24">
-        <v>436</v>
+        <v>531</v>
       </c>
       <c r="M27" s="25">
-        <v>8687.23</v>
+        <v>7857.1980202911</v>
       </c>
       <c r="N27" s="25">
-        <v>23661.5626002235</v>
+        <v>27754.029503924899</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
@@ -2608,40 +2608,40 @@
         <v>66</v>
       </c>
       <c r="C28" s="21">
-        <v>1.94402169810248</v>
+        <v>1.0986099296467999</v>
       </c>
       <c r="D28" s="22">
-        <v>2.83591518776691</v>
+        <v>3.40735390428067</v>
       </c>
       <c r="E28" s="22">
-        <v>1.8518169678748799</v>
+        <v>1.39653245950107</v>
       </c>
       <c r="F28" s="22">
-        <v>3.0979045172134598</v>
+        <v>2.9745184915113199</v>
       </c>
       <c r="G28" s="23">
-        <v>9.7296583709577291</v>
+        <v>8.8770147849398597</v>
       </c>
       <c r="H28" s="23">
-        <v>13.226633488589901</v>
+        <v>14.3433390156647</v>
       </c>
       <c r="I28" s="24">
-        <v>1706.87604781152</v>
+        <v>1048.1881317044599</v>
       </c>
       <c r="J28" s="24">
-        <v>2489.9699999999998</v>
+        <v>3250.97</v>
       </c>
       <c r="K28" s="24">
-        <v>1625.9191090725999</v>
+        <v>1332.4372100475</v>
       </c>
       <c r="L28" s="24">
-        <v>2720</v>
+        <v>2838</v>
       </c>
       <c r="M28" s="25">
-        <v>8542.7651568841193</v>
+        <v>8469.5953417519595</v>
       </c>
       <c r="N28" s="25">
-        <v>11613.154275434301</v>
+        <v>13685.0371724447</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
@@ -2652,40 +2652,40 @@
         <v>68</v>
       </c>
       <c r="C29" s="21">
-        <v>-4.1975161500000002E-5</v>
+        <v>-7.8577288931300004E-2</v>
       </c>
       <c r="D29" s="22">
-        <v>5.0161520878664101</v>
+        <v>5.3536323921151103</v>
       </c>
       <c r="E29" s="22">
-        <v>2.54537841347911</v>
+        <v>1.6090384197299199</v>
       </c>
       <c r="F29" s="22">
-        <v>3.07566646434229</v>
+        <v>3.0656106772099498</v>
       </c>
       <c r="G29" s="23">
-        <v>10.6371549905263</v>
+        <v>9.94970420012368</v>
       </c>
       <c r="H29" s="23">
-        <v>14.9162008707609</v>
+        <v>13.443261810611199</v>
       </c>
       <c r="I29" s="24">
-        <v>-5.8138354748000004E-3</v>
+        <v>-11.09859329503</v>
       </c>
       <c r="J29" s="24">
-        <v>694.77</v>
+        <v>756.17</v>
       </c>
       <c r="K29" s="24">
-        <v>352.55162310780003</v>
+        <v>227.26748733049999</v>
       </c>
       <c r="L29" s="24">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="M29" s="25">
-        <v>1473.3158092723299</v>
+        <v>1405.33889403547</v>
       </c>
       <c r="N29" s="25">
-        <v>2065.9917597088902</v>
+        <v>1898.7839542926999</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
@@ -2696,40 +2696,40 @@
         <v>70</v>
       </c>
       <c r="C30" s="21">
-        <v>-29.416993262174</v>
+        <v>-5.8275220300389003</v>
       </c>
       <c r="D30" s="22">
-        <v>0.48399617833336001</v>
+        <v>0.15788247941026001</v>
       </c>
       <c r="E30" s="22">
-        <v>2.61965883110024</v>
+        <v>3.3619629492213101</v>
       </c>
       <c r="F30" s="22">
-        <v>1.72755046170854</v>
+        <v>2.2707173549086699</v>
       </c>
       <c r="G30" s="23">
-        <v>-24.585787791032001</v>
+        <v>-3.6959246498699999E-2</v>
       </c>
       <c r="H30" s="23">
-        <v>17.650326399908199</v>
+        <v>17.149181705133401</v>
       </c>
       <c r="I30" s="24">
-        <v>-4171.8974403241</v>
+        <v>-818.67499870198003</v>
       </c>
       <c r="J30" s="24">
-        <v>68.64</v>
+        <v>22.18</v>
       </c>
       <c r="K30" s="24">
-        <v>371.51818592019998</v>
+        <v>472.30280707690002</v>
       </c>
       <c r="L30" s="24">
-        <v>245</v>
+        <v>319</v>
       </c>
       <c r="M30" s="25">
-        <v>-3486.7392544038998</v>
+        <v>-5.1921916250800999</v>
       </c>
       <c r="N30" s="25">
-        <v>2503.1569634734601</v>
+        <v>2409.1897444266401</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
@@ -2740,40 +2740,40 @@
         <v>72</v>
       </c>
       <c r="C31" s="21">
-        <v>-0.19036223965230001</v>
+        <v>0</v>
       </c>
       <c r="D31" s="22">
-        <v>11.6236606212317</v>
+        <v>11.766462607366901</v>
       </c>
       <c r="E31" s="22">
-        <v>3.9664142316329598</v>
+        <v>4.1506046198041098</v>
       </c>
       <c r="F31" s="22">
-        <v>2.7106642442293301</v>
+        <v>2.5783282180528699</v>
       </c>
       <c r="G31" s="23">
-        <v>18.110376857441601</v>
+        <v>18.495395445223899</v>
       </c>
       <c r="H31" s="23">
-        <v>3.9509997463230202</v>
+        <v>6.38655060614132</v>
       </c>
       <c r="I31" s="24">
-        <v>-18.329287610969999</v>
+        <v>0</v>
       </c>
       <c r="J31" s="24">
-        <v>1119.2</v>
+        <v>1191.0999999999999</v>
       </c>
       <c r="K31" s="24">
-        <v>381.91159848000001</v>
+        <v>420.15899999999999</v>
       </c>
       <c r="L31" s="24">
         <v>261</v>
       </c>
       <c r="M31" s="25">
-        <v>1743.78231086903</v>
+        <v>1872.259</v>
       </c>
       <c r="N31" s="25">
-        <v>380.42739375989902</v>
+        <v>646.50019983169898</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
@@ -2784,40 +2784,40 @@
         <v>74</v>
       </c>
       <c r="C32" s="21">
-        <v>-0.17284704443750001</v>
+        <v>-1.0695179127054</v>
       </c>
       <c r="D32" s="22" t="s">
         <v>23</v>
       </c>
       <c r="E32" s="22">
-        <v>7.5689532816579099</v>
+        <v>7.60314021262836</v>
       </c>
       <c r="F32" s="22">
-        <v>1.4564991804701899</v>
+        <v>1.4535276614116699</v>
       </c>
       <c r="G32" s="23" t="s">
         <v>23</v>
       </c>
       <c r="H32" s="23">
-        <v>5.3439789415034999</v>
+        <v>5.9612708385543502</v>
       </c>
       <c r="I32" s="24">
-        <v>-2.7294776923800002</v>
+        <v>-17.659402422380001</v>
       </c>
       <c r="J32" s="24" t="s">
         <v>23</v>
       </c>
       <c r="K32" s="24">
-        <v>119.5235313637</v>
+        <v>125.539657722</v>
       </c>
       <c r="L32" s="24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M32" s="25" t="s">
         <v>23</v>
       </c>
       <c r="N32" s="25">
-        <v>84.388317757173198</v>
+        <v>98.429843424069304</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
@@ -2831,10 +2831,10 @@
         <v>23</v>
       </c>
       <c r="D33" s="22">
-        <v>33.366468918418398</v>
+        <v>37.747057295109897</v>
       </c>
       <c r="E33" s="22">
-        <v>8.6427360861350095</v>
+        <v>9.0443372092936904</v>
       </c>
       <c r="F33" s="22">
         <v>0</v>
@@ -2849,10 +2849,10 @@
         <v>23</v>
       </c>
       <c r="J33" s="24">
-        <v>1575.14</v>
+        <v>1865.58</v>
       </c>
       <c r="K33" s="24">
-        <v>408</v>
+        <v>447</v>
       </c>
       <c r="L33" s="24">
         <v>0</v>
@@ -2875,28 +2875,28 @@
         <v>23</v>
       </c>
       <c r="D34" s="16">
-        <v>33.8537986337343</v>
+        <v>38.2078116528346</v>
       </c>
       <c r="E34" s="16">
-        <v>1.2908255137597999</v>
+        <v>0.36283778342446998</v>
       </c>
       <c r="F34" s="16">
-        <v>27.194478316156701</v>
+        <v>25.677646896275601</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>23</v>
       </c>
       <c r="H34" s="17">
-        <v>1.4968974983341199</v>
+        <v>8.48440246092993</v>
       </c>
       <c r="I34" s="18" t="s">
         <v>23</v>
       </c>
       <c r="J34" s="18">
-        <v>1577.26</v>
+        <v>1885.27</v>
       </c>
       <c r="K34" s="18">
-        <v>60.14</v>
+        <v>17.903333333300001</v>
       </c>
       <c r="L34" s="18">
         <v>1267</v>
@@ -2905,7 +2905,7 @@
         <v>23</v>
       </c>
       <c r="N34" s="19">
-        <v>69.740963894959094</v>
+        <v>418.64186237242097</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
@@ -2919,37 +2919,37 @@
         <v>0</v>
       </c>
       <c r="D35" s="22">
-        <v>2.7106469533694999</v>
+        <v>4.8702447372809301</v>
       </c>
       <c r="E35" s="22">
-        <v>3.1832227749275601</v>
+        <v>2.4742870897792599</v>
       </c>
       <c r="F35" s="22">
-        <v>1.19112974470056</v>
+        <v>1.27401503895831</v>
       </c>
       <c r="G35" s="23">
-        <v>7.0849994729976098</v>
+        <v>8.6185468660184892</v>
       </c>
       <c r="H35" s="23">
-        <v>11.5302638461373</v>
+        <v>12.577760967830001</v>
       </c>
       <c r="I35" s="24">
         <v>0</v>
       </c>
       <c r="J35" s="24">
-        <v>967.17</v>
+        <v>1624.67</v>
       </c>
       <c r="K35" s="24">
-        <v>1135.787</v>
+        <v>825.4</v>
       </c>
       <c r="L35" s="24">
         <v>425</v>
       </c>
       <c r="M35" s="25">
-        <v>2527.9569999999999</v>
+        <v>2875.07</v>
       </c>
       <c r="N35" s="25">
-        <v>4114.0456414681003</v>
+        <v>4195.8283441446001</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
@@ -2960,40 +2960,40 @@
         <v>82</v>
       </c>
       <c r="C36" s="21">
-        <v>1.54404228537E-2</v>
+        <v>1.521866712385E-2</v>
       </c>
       <c r="D36" s="22">
-        <v>4.3296821424937804</v>
+        <v>3.5407392432859099</v>
       </c>
       <c r="E36" s="22">
-        <v>1.8624716248751201</v>
+        <v>1.8292904011031601</v>
       </c>
       <c r="F36" s="22">
-        <v>0.72840983056194997</v>
+        <v>0.71533740064713003</v>
       </c>
       <c r="G36" s="23">
-        <v>6.9360040207845604</v>
+        <v>6.1005857121600497</v>
       </c>
       <c r="H36" s="23">
-        <v>23.756841673640199</v>
+        <v>27.569965143903001</v>
       </c>
       <c r="I36" s="24">
-        <v>8.7545422522099994</v>
+        <v>9.2545422522099994</v>
       </c>
       <c r="J36" s="24">
-        <v>2454.88</v>
+        <v>2153.14</v>
       </c>
       <c r="K36" s="24">
-        <v>1056</v>
+        <v>1112.4000000000001</v>
       </c>
       <c r="L36" s="24">
-        <v>413</v>
+        <v>435</v>
       </c>
       <c r="M36" s="25">
-        <v>3932.6345422522099</v>
+        <v>3709.7945422522098</v>
       </c>
       <c r="N36" s="25">
-        <v>13469.8561160878</v>
+        <v>16765.424017740901</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3004,40 +3004,40 @@
         <v>84</v>
       </c>
       <c r="C37" s="21">
-        <v>-0.27851405402020002</v>
+        <v>-0.26024909590900003</v>
       </c>
       <c r="D37" s="22">
-        <v>5.7634039039872604</v>
+        <v>5.7559460315132203</v>
       </c>
       <c r="E37" s="22">
-        <v>3.1265913652206501</v>
+        <v>3.4700706598723801</v>
       </c>
       <c r="F37" s="22">
-        <v>3.9639733232247498</v>
+        <v>3.9058019223271998</v>
       </c>
       <c r="G37" s="23">
-        <v>12.575454538412499</v>
+        <v>12.871569517803801</v>
       </c>
       <c r="H37" s="23">
-        <v>11.447879278061601</v>
+        <v>11.271269245538299</v>
       </c>
       <c r="I37" s="24">
-        <v>-94.009665023639997</v>
+        <v>-94.949761673880005</v>
       </c>
       <c r="J37" s="24">
-        <v>1945.38</v>
+        <v>2100.0100000000002</v>
       </c>
       <c r="K37" s="24">
-        <v>1055.3499999999999</v>
+        <v>1266.027</v>
       </c>
       <c r="L37" s="24">
-        <v>1338</v>
+        <v>1425</v>
       </c>
       <c r="M37" s="25">
-        <v>4244.7203349763604</v>
+        <v>4696.0872383261203</v>
       </c>
       <c r="N37" s="25">
-        <v>3864.1184551629799</v>
+        <v>4112.2307260584703</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3048,40 +3048,40 @@
         <v>85</v>
       </c>
       <c r="C38" s="30">
-        <v>-0.4475848586442</v>
+        <v>4.9689090552370002E-2</v>
       </c>
       <c r="D38" s="30">
-        <v>5.1110714303220597</v>
+        <v>5.4412229176376004</v>
       </c>
       <c r="E38" s="30">
-        <v>2.9632547588367801</v>
+        <v>2.4232876001153598</v>
       </c>
       <c r="F38" s="30">
-        <v>2.09702729583922</v>
+        <v>2.0579092417475602</v>
       </c>
       <c r="G38" s="31">
-        <v>9.7237686263538805</v>
+        <v>9.9721088500528801</v>
       </c>
       <c r="H38" s="31">
-        <v>17.9024934835845</v>
+        <v>19.268567193497699</v>
       </c>
       <c r="I38" s="32">
-        <v>-2571.3410944227999</v>
+        <v>115.0599178634</v>
       </c>
       <c r="J38" s="32">
-        <v>18187.52</v>
+        <v>20286.71</v>
       </c>
       <c r="K38" s="32">
-        <v>10114.8799713432</v>
+        <v>9019.5531061091006</v>
       </c>
       <c r="L38" s="32">
-        <v>7777</v>
+        <v>8152</v>
       </c>
       <c r="M38" s="33">
-        <v>33508.058876920397</v>
+        <v>37573.323023972502</v>
       </c>
       <c r="N38" s="33">
-        <v>62107.450059488197</v>
+        <v>72433.500465841906</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
@@ -3095,37 +3095,37 @@
         <v>0</v>
       </c>
       <c r="D39" s="16">
-        <v>8.3139045086960003E-2</v>
+        <v>0.10381218297399</v>
       </c>
       <c r="E39" s="16">
-        <v>0.84375378242538002</v>
+        <v>0.81639555448258005</v>
       </c>
       <c r="F39" s="16">
-        <v>1.03132471823223</v>
+        <v>1.05868103738556</v>
       </c>
       <c r="G39" s="17">
-        <v>1.9582175457445701</v>
+        <v>1.97888877484214</v>
       </c>
       <c r="H39" s="17">
-        <v>34.532179483286498</v>
+        <v>34.776761627906403</v>
       </c>
       <c r="I39" s="18">
         <v>0</v>
       </c>
       <c r="J39" s="18">
-        <v>144.46</v>
+        <v>175.72</v>
       </c>
       <c r="K39" s="18">
-        <v>1466.0821673099999</v>
+        <v>1381.890089621</v>
       </c>
       <c r="L39" s="18">
         <v>1792</v>
       </c>
       <c r="M39" s="19">
-        <v>3402.54216731</v>
+        <v>3349.610089621</v>
       </c>
       <c r="N39" s="19">
-        <v>60002.116249205697</v>
+        <v>58865.658906207202</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
@@ -3136,40 +3136,40 @@
         <v>89</v>
       </c>
       <c r="C40" s="21">
-        <v>4.83303200072117</v>
+        <v>1.0200281781001199</v>
       </c>
       <c r="D40" s="22">
-        <v>0.82857000646024004</v>
+        <v>0.57571608888722003</v>
       </c>
       <c r="E40" s="22">
-        <v>3.2532297704361599</v>
+        <v>2.9801400449697102</v>
       </c>
       <c r="F40" s="22">
-        <v>10.196087949399899</v>
+        <v>8.8580611036996597</v>
       </c>
       <c r="G40" s="23">
-        <v>19.1109197270174</v>
+        <v>13.4339454156567</v>
       </c>
       <c r="H40" s="23">
-        <v>21.296291605444601</v>
+        <v>19.1291630161803</v>
       </c>
       <c r="I40" s="24">
-        <v>12094.8</v>
+        <v>3083.9</v>
       </c>
       <c r="J40" s="24">
-        <v>2073.52</v>
+        <v>1740.59</v>
       </c>
       <c r="K40" s="24">
-        <v>8141.3</v>
+        <v>9010</v>
       </c>
       <c r="L40" s="24">
-        <v>25516</v>
+        <v>26781</v>
       </c>
       <c r="M40" s="25">
-        <v>47825.62</v>
+        <v>40615.49</v>
       </c>
       <c r="N40" s="25">
-        <v>53294.575262712402</v>
+        <v>57834.1138923006</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
@@ -3183,7 +3183,7 @@
         <v>23</v>
       </c>
       <c r="D41" s="16">
-        <v>0.73206511959635001</v>
+        <v>0.79334886190352005</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>23</v>
@@ -3201,7 +3201,7 @@
         <v>23</v>
       </c>
       <c r="J41" s="18">
-        <v>303.31</v>
+        <v>316.01</v>
       </c>
       <c r="K41" s="18" t="s">
         <v>23</v>
@@ -3227,37 +3227,37 @@
         <v>0</v>
       </c>
       <c r="D42" s="16">
-        <v>6.3495668969479304</v>
+        <v>5.4235248611596703</v>
       </c>
       <c r="E42" s="16">
-        <v>10.966524668025601</v>
+        <v>11.648776192185201</v>
       </c>
       <c r="F42" s="16">
-        <v>0.85133857836172999</v>
+        <v>0.84212138171240003</v>
       </c>
       <c r="G42" s="17">
-        <v>18.167430143335199</v>
+        <v>17.9144224350573</v>
       </c>
       <c r="H42" s="17">
-        <v>15.9110863573424</v>
+        <v>21.1737770817194</v>
       </c>
       <c r="I42" s="18">
         <v>0</v>
       </c>
       <c r="J42" s="18">
-        <v>447.5</v>
+        <v>412.18</v>
       </c>
       <c r="K42" s="18">
-        <v>772.89047719150005</v>
+        <v>885.29004546099998</v>
       </c>
       <c r="L42" s="18">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M42" s="19">
-        <v>1280.3904771914999</v>
+        <v>1361.4700454609999</v>
       </c>
       <c r="N42" s="19">
-        <v>1121.3695769286601</v>
+        <v>1609.1762573163501</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
@@ -3268,40 +3268,40 @@
         <v>95</v>
       </c>
       <c r="C43" s="21">
-        <v>-0.44488637569529998</v>
+        <v>0.96053269391664997</v>
       </c>
       <c r="D43" s="22">
-        <v>0.69182548352775997</v>
+        <v>0.63918084133465003</v>
       </c>
       <c r="E43" s="22">
-        <v>3.0180110734473802</v>
+        <v>1.3487132736026399</v>
       </c>
       <c r="F43" s="22">
-        <v>5.8674697791502997</v>
+        <v>5.6803142617223399</v>
       </c>
       <c r="G43" s="23">
-        <v>9.1324199604300897</v>
+        <v>8.6287410705762806</v>
       </c>
       <c r="H43" s="23">
-        <v>24.6951014406715</v>
+        <v>27.7377924383395</v>
       </c>
       <c r="I43" s="24">
-        <v>-524.61605245486999</v>
+        <v>1138.8784837349999</v>
       </c>
       <c r="J43" s="24">
-        <v>815.81</v>
+        <v>757.86</v>
       </c>
       <c r="K43" s="24">
-        <v>3558.8796198634</v>
+        <v>1599.1340406858999</v>
       </c>
       <c r="L43" s="24">
-        <v>6919</v>
+        <v>6735</v>
       </c>
       <c r="M43" s="25">
-        <v>10769.073567408501</v>
+        <v>10230.8725244209</v>
       </c>
       <c r="N43" s="25">
-        <v>29120.798793913898</v>
+        <v>32887.974760673198</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3312,40 +3312,40 @@
         <v>97</v>
       </c>
       <c r="C44" s="21">
-        <v>-0.32326866090579998</v>
+        <v>-0.19564450809619999</v>
       </c>
       <c r="D44" s="22">
-        <v>2.0284640284837399</v>
+        <v>2.5363435846842601</v>
       </c>
       <c r="E44" s="22">
-        <v>2.6047683461762898</v>
+        <v>2.1774692227680901</v>
       </c>
       <c r="F44" s="22">
-        <v>4.7823816622159301</v>
+        <v>5.2838880406113002</v>
       </c>
       <c r="G44" s="23">
-        <v>9.0923453759701598</v>
+        <v>9.8020563399674696</v>
       </c>
       <c r="H44" s="23">
-        <v>9.1176471055185395</v>
+        <v>8.3308140032990305</v>
       </c>
       <c r="I44" s="24">
-        <v>-128.56711079767001</v>
+        <v>-75.90456847582</v>
       </c>
       <c r="J44" s="24">
-        <v>806.74</v>
+        <v>984.03</v>
       </c>
       <c r="K44" s="24">
-        <v>1035.9418683726999</v>
+        <v>844.79683754960001</v>
       </c>
       <c r="L44" s="24">
-        <v>1902</v>
+        <v>2050</v>
       </c>
       <c r="M44" s="25">
-        <v>3616.1147575750301</v>
+        <v>3802.9222690737802</v>
       </c>
       <c r="N44" s="25">
-        <v>3626.1775030855401</v>
+        <v>3232.1216073282399</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3356,40 +3356,40 @@
         <v>98</v>
       </c>
       <c r="C45" s="30">
-        <v>2.5936385238870798</v>
+        <v>0.69010436585043999</v>
       </c>
       <c r="D45" s="30">
-        <v>0.76468346392021003</v>
+        <v>0.65212454666957997</v>
       </c>
       <c r="E45" s="30">
-        <v>2.6887808010332699</v>
+        <v>2.3085418587431401</v>
       </c>
       <c r="F45" s="30">
-        <v>6.9807809460868304</v>
+        <v>6.3148739715175699</v>
       </c>
       <c r="G45" s="31">
-        <v>13.0278837349274</v>
+        <v>9.9656447427807198</v>
       </c>
       <c r="H45" s="31">
-        <v>24.117177409931202</v>
+        <v>23.292675577815199</v>
       </c>
       <c r="I45" s="32">
-        <v>11441.6168367475</v>
+        <v>4146.8739152591797</v>
       </c>
       <c r="J45" s="32">
-        <v>4591.34</v>
+        <v>4386.3900000000003</v>
       </c>
       <c r="K45" s="32">
-        <v>14975.0941327376</v>
+        <v>13721.111013317501</v>
       </c>
       <c r="L45" s="32">
-        <v>36189</v>
+        <v>37422</v>
       </c>
       <c r="M45" s="33">
-        <v>67197.050969485106</v>
+        <v>59676.374928576697</v>
       </c>
       <c r="N45" s="33">
-        <v>147165.03738584599</v>
+        <v>154429.045423826</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
@@ -3400,40 +3400,40 @@
         <v>100</v>
       </c>
       <c r="C46" s="21">
-        <v>0.79648994829987996</v>
+        <v>3.19428813230512</v>
       </c>
       <c r="D46" s="22">
-        <v>4.0285606583339097</v>
+        <v>4.1842521813433704</v>
       </c>
       <c r="E46" s="22">
-        <v>1.36120898147571</v>
+        <v>1.59941112239645</v>
       </c>
       <c r="F46" s="22">
-        <v>1.3957615666007099</v>
+        <v>1.4243730545414299</v>
       </c>
       <c r="G46" s="23">
-        <v>7.5820211547102101</v>
+        <v>10.4023244905864</v>
       </c>
       <c r="H46" s="23">
-        <v>17.153222764078699</v>
+        <v>17.471308795337102</v>
       </c>
       <c r="I46" s="24">
-        <v>113.55915186695999</v>
+        <v>459.73143414550998</v>
       </c>
       <c r="J46" s="24">
-        <v>574.37</v>
+        <v>602.21</v>
       </c>
       <c r="K46" s="24">
-        <v>194.07368263719999</v>
+        <v>230.1919985399</v>
       </c>
       <c r="L46" s="24">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="M46" s="25">
-        <v>1081.0028345041601</v>
+        <v>1497.1334326854101</v>
       </c>
       <c r="N46" s="25">
-        <v>2445.6120670846499</v>
+        <v>2514.52264673542</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
@@ -3444,40 +3444,40 @@
         <v>102</v>
       </c>
       <c r="C47" s="21">
-        <v>1.3116715824420799</v>
+        <v>1.3240345117674801</v>
       </c>
       <c r="D47" s="22">
-        <v>6.8759486654820696</v>
+        <v>7.29566319477438</v>
       </c>
       <c r="E47" s="22">
-        <v>1.6561888087136101</v>
+        <v>1.3206142210682399</v>
       </c>
       <c r="F47" s="22">
-        <v>2.81363693518295</v>
+        <v>3.0228981996262299</v>
       </c>
       <c r="G47" s="23">
-        <v>12.657445991820699</v>
+        <v>12.9632101272363</v>
       </c>
       <c r="H47" s="23">
-        <v>8.2389764266955599</v>
+        <v>5.7023656458131899</v>
       </c>
       <c r="I47" s="24">
-        <v>212.57975189136999</v>
+        <v>208.48880312252999</v>
       </c>
       <c r="J47" s="24">
-        <v>1114.3699999999999</v>
+        <v>1148.81</v>
       </c>
       <c r="K47" s="24">
-        <v>268.4149071722</v>
+        <v>207.95022779999999</v>
       </c>
       <c r="L47" s="24">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="M47" s="25">
-        <v>2051.3646590635699</v>
+        <v>2041.24903092253</v>
       </c>
       <c r="N47" s="25">
-        <v>1335.2729357488599</v>
+        <v>897.92175196065102</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
@@ -3488,40 +3488,40 @@
         <v>104</v>
       </c>
       <c r="C48" s="21">
-        <v>-1.888120689E-4</v>
+        <v>0</v>
       </c>
       <c r="D48" s="22">
-        <v>4.2853204722049796</v>
+        <v>7.6969541710030303</v>
       </c>
       <c r="E48" s="22">
-        <v>5.3569841782849101</v>
+        <v>5.2475054075004604</v>
       </c>
       <c r="F48" s="22">
-        <v>11.848578023303199</v>
+        <v>11.908228558782699</v>
       </c>
       <c r="G48" s="23">
-        <v>21.4906938617241</v>
+        <v>24.852688137286201</v>
       </c>
       <c r="H48" s="23">
-        <v>30.409507728831201</v>
+        <v>31.053821267292701</v>
       </c>
       <c r="I48" s="24">
-        <v>-3.7129528941999999E-3</v>
+        <v>0</v>
       </c>
       <c r="J48" s="24">
-        <v>84.27</v>
+        <v>152.54</v>
       </c>
       <c r="K48" s="24">
-        <v>105.3440599442</v>
+        <v>103.99626359680001</v>
       </c>
       <c r="L48" s="24">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M48" s="25">
-        <v>422.61034699130602</v>
+        <v>492.53626359679998</v>
       </c>
       <c r="N48" s="25">
-        <v>597.99710031722202</v>
+        <v>615.431739733943</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
@@ -3532,40 +3532,40 @@
         <v>106</v>
       </c>
       <c r="C49" s="21">
-        <v>2.9975941017207801</v>
+        <v>1.52889487862292</v>
       </c>
       <c r="D49" s="22">
-        <v>1.6523938804184399</v>
+        <v>2.0505502745078301</v>
       </c>
       <c r="E49" s="22">
-        <v>1.07463574527134</v>
+        <v>1.7219015617192199</v>
       </c>
       <c r="F49" s="22">
-        <v>0.57514338704491996</v>
+        <v>0.57698025589074997</v>
       </c>
       <c r="G49" s="23">
-        <v>6.2997671144554701</v>
+        <v>5.8783269707407202</v>
       </c>
       <c r="H49" s="23">
-        <v>10.127823526317201</v>
+        <v>11.364850053110899</v>
       </c>
       <c r="I49" s="24">
-        <v>1730.3532722242301</v>
+        <v>895.63977917538</v>
       </c>
       <c r="J49" s="24">
-        <v>953.84</v>
+        <v>1201.23</v>
       </c>
       <c r="K49" s="24">
-        <v>620.33064356909995</v>
+        <v>1008.7047553518</v>
       </c>
       <c r="L49" s="24">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="M49" s="25">
-        <v>3636.5239157933302</v>
+        <v>3443.5745345271798</v>
       </c>
       <c r="N49" s="25">
-        <v>5846.2593615367496</v>
+        <v>6657.6269789703802</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
@@ -3576,40 +3576,40 @@
         <v>108</v>
       </c>
       <c r="C50" s="21">
-        <v>0.59790997899770004</v>
+        <v>0.56913956492994</v>
       </c>
       <c r="D50" s="22">
-        <v>14.0825071767332</v>
+        <v>10.670650715793499</v>
       </c>
       <c r="E50" s="22">
-        <v>1.9827011011388</v>
+        <v>1.77437631150856</v>
       </c>
       <c r="F50" s="22">
-        <v>12.272337408917799</v>
+        <v>15.122804302428399</v>
       </c>
       <c r="G50" s="23">
-        <v>28.9354556657876</v>
+        <v>28.136970894660401</v>
       </c>
       <c r="H50" s="23">
-        <v>19.7863354753012</v>
+        <v>20.3654119338978</v>
       </c>
       <c r="I50" s="24">
-        <v>9.9389082659099994</v>
+        <v>10.349494526659999</v>
       </c>
       <c r="J50" s="24">
-        <v>234.09</v>
+        <v>194.04</v>
       </c>
       <c r="K50" s="24">
-        <v>32.957945267900001</v>
+        <v>32.2660715504</v>
       </c>
       <c r="L50" s="24">
-        <v>204</v>
+        <v>275</v>
       </c>
       <c r="M50" s="25">
-        <v>480.98685353381001</v>
+        <v>511.65556607705997</v>
       </c>
       <c r="N50" s="25">
-        <v>328.903313400456</v>
+        <v>370.33397839596199</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
@@ -3620,40 +3620,40 @@
         <v>110</v>
       </c>
       <c r="C51" s="16">
-        <v>1.4178764589677799</v>
+        <v>2.5433461389933201</v>
       </c>
       <c r="D51" s="16">
-        <v>1.62933435229243</v>
+        <v>1.3975269324378701</v>
       </c>
       <c r="E51" s="16">
-        <v>4.5621361864187904</v>
+        <v>3.4609807020430399</v>
       </c>
       <c r="F51" s="16">
-        <v>5.3741323226432103</v>
+        <v>5.25535322231047</v>
       </c>
       <c r="G51" s="17">
-        <v>12.9834793203222</v>
+        <v>12.6572069957847</v>
       </c>
       <c r="H51" s="17">
-        <v>25.961729760628799</v>
+        <v>26.6720788019129</v>
       </c>
       <c r="I51" s="18">
-        <v>928.95796238416995</v>
+        <v>1703.99997423169</v>
       </c>
       <c r="J51" s="18">
-        <v>1067.5</v>
+        <v>936.32</v>
       </c>
       <c r="K51" s="18">
-        <v>2989</v>
+        <v>2318.8000000000002</v>
       </c>
       <c r="L51" s="18">
         <v>3521</v>
       </c>
       <c r="M51" s="19">
-        <v>8506.4579623841692</v>
+        <v>8480.1199742316894</v>
       </c>
       <c r="N51" s="19">
-        <v>17009.4900905258</v>
+        <v>17869.852983972702</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
@@ -3667,37 +3667,37 @@
         <v>23</v>
       </c>
       <c r="D52" s="22">
-        <v>4.8800712895616103</v>
+        <v>4.2087561510199603</v>
       </c>
       <c r="E52" s="22">
-        <v>2.8987173562774</v>
+        <v>0.32470943646361999</v>
       </c>
       <c r="F52" s="22">
-        <v>0.22987449296411</v>
+        <v>1.1451806018136601</v>
       </c>
       <c r="G52" s="23" t="s">
         <v>23</v>
       </c>
       <c r="H52" s="23">
-        <v>-2.189136718851</v>
+        <v>-8.9593443318430008</v>
       </c>
       <c r="I52" s="24" t="s">
         <v>23</v>
       </c>
       <c r="J52" s="24">
-        <v>594.41999999999996</v>
+        <v>580.67999999999995</v>
       </c>
       <c r="K52" s="24">
-        <v>353.08</v>
+        <v>44.8</v>
       </c>
       <c r="L52" s="24">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="M52" s="25" t="s">
         <v>23</v>
       </c>
       <c r="N52" s="25">
-        <v>-266.64910637734999</v>
+        <v>-1236.1162965818</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
@@ -3711,37 +3711,37 @@
         <v>23</v>
       </c>
       <c r="D53" s="22">
-        <v>10.199218834865199</v>
+        <v>8.3707483860655802</v>
       </c>
       <c r="E53" s="22">
-        <v>1.36563928555043</v>
+        <v>2.1264016820927099</v>
       </c>
       <c r="F53" s="22">
-        <v>8.5004558592442994</v>
+        <v>9.0993945612363305</v>
       </c>
       <c r="G53" s="23" t="s">
         <v>23</v>
       </c>
       <c r="H53" s="23">
-        <v>3.5419708183186698</v>
+        <v>4.3010524053024399</v>
       </c>
       <c r="I53" s="24" t="s">
         <v>23</v>
       </c>
       <c r="J53" s="24">
-        <v>153.58000000000001</v>
+        <v>120.51</v>
       </c>
       <c r="K53" s="24">
-        <v>20.563818158099998</v>
+        <v>30.6128741291</v>
       </c>
       <c r="L53" s="24">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M53" s="25" t="s">
         <v>23</v>
       </c>
       <c r="N53" s="25">
-        <v>53.335053113856802</v>
+        <v>61.920368580881203</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
@@ -3755,16 +3755,16 @@
         <v>0</v>
       </c>
       <c r="D54" s="22">
-        <v>17.5593910588649</v>
+        <v>18.806655717228001</v>
       </c>
       <c r="E54" s="22">
-        <v>4.3906902429584997</v>
+        <v>4.3387138300614803</v>
       </c>
       <c r="F54" s="22">
-        <v>14.092363325152901</v>
+        <v>9.4771615591328402</v>
       </c>
       <c r="G54" s="23">
-        <v>36.042444626976298</v>
+        <v>32.6225311064224</v>
       </c>
       <c r="H54" s="23" t="s">
         <v>23</v>
@@ -3773,16 +3773,16 @@
         <v>0</v>
       </c>
       <c r="J54" s="24">
-        <v>573.16999999999996</v>
+        <v>597.30999999999995</v>
       </c>
       <c r="K54" s="24">
-        <v>143.32</v>
+        <v>137.80000000000001</v>
       </c>
       <c r="L54" s="24">
-        <v>460</v>
+        <v>301</v>
       </c>
       <c r="M54" s="25">
-        <v>1176.49</v>
+        <v>1036.1099999999999</v>
       </c>
       <c r="N54" s="25" t="s">
         <v>23</v>
@@ -3796,40 +3796,40 @@
         <v>118</v>
       </c>
       <c r="C55" s="21">
-        <v>0.48757767597125001</v>
+        <v>0.49082948219028</v>
       </c>
       <c r="D55" s="22">
-        <v>8.8339159124633309</v>
+        <v>10.7549131356828</v>
       </c>
       <c r="E55" s="22">
-        <v>2.7523991059869601</v>
+        <v>2.8504716455675498</v>
       </c>
       <c r="F55" s="22">
-        <v>6.0196439942242499</v>
+        <v>5.9685060633508904</v>
       </c>
       <c r="G55" s="23">
-        <v>18.093536688645798</v>
+        <v>20.064720326791502</v>
       </c>
       <c r="H55" s="23">
-        <v>11.949253898598</v>
+        <v>5.7519226841228299</v>
       </c>
       <c r="I55" s="24">
-        <v>82.779710115870003</v>
+        <v>85.032616068050004</v>
       </c>
       <c r="J55" s="24">
-        <v>1499.8</v>
+        <v>1863.21</v>
       </c>
       <c r="K55" s="24">
-        <v>467.29538973029997</v>
+        <v>493.82335382299999</v>
       </c>
       <c r="L55" s="24">
-        <v>1022</v>
+        <v>1034</v>
       </c>
       <c r="M55" s="25">
-        <v>3071.8750998461701</v>
+        <v>3476.0659698910499</v>
       </c>
       <c r="N55" s="25">
-        <v>2028.7142389291701</v>
+        <v>996.47851443145203</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
@@ -3840,40 +3840,40 @@
         <v>120</v>
       </c>
       <c r="C56" s="21">
-        <v>0.66311264783422996</v>
+        <v>0.721346485275</v>
       </c>
       <c r="D56" s="22">
-        <v>9.3287641389088698</v>
+        <v>11.5422041246078</v>
       </c>
       <c r="E56" s="22">
-        <v>3.6260203761569101</v>
+        <v>4.5906942471686003</v>
       </c>
       <c r="F56" s="22">
-        <v>2.3107947867021998</v>
+        <v>2.4782804843657402</v>
       </c>
       <c r="G56" s="23">
-        <v>15.9286919496022</v>
+        <v>19.332525341417099</v>
       </c>
       <c r="H56" s="23">
-        <v>13.042747987748299</v>
+        <v>13.422544191387299</v>
       </c>
       <c r="I56" s="24">
-        <v>85.228016585510005</v>
+        <v>93.141545819450002</v>
       </c>
       <c r="J56" s="24">
-        <v>1199</v>
+        <v>1490.35</v>
       </c>
       <c r="K56" s="24">
-        <v>466.042271653</v>
+        <v>592.75863582080001</v>
       </c>
       <c r="L56" s="24">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="M56" s="25">
-        <v>2047.2702882385099</v>
+        <v>2496.25018164025</v>
       </c>
       <c r="N56" s="25">
-        <v>1676.3479711192899</v>
+        <v>1733.1428659267301</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
@@ -3884,40 +3884,40 @@
         <v>122</v>
       </c>
       <c r="C57" s="16">
-        <v>3.1516195775098299</v>
+        <v>1.0203169293521599</v>
       </c>
       <c r="D57" s="16">
-        <v>0.83001983471731999</v>
+        <v>0.78490507266472997</v>
       </c>
       <c r="E57" s="16">
-        <v>1.6077103763210501</v>
+        <v>0.73620510238741999</v>
       </c>
       <c r="F57" s="16">
-        <v>6.1058312586238497</v>
+        <v>5.3130806622867803</v>
       </c>
       <c r="G57" s="17">
-        <v>11.695181047171999</v>
+        <v>7.8545077666910901</v>
       </c>
       <c r="H57" s="17">
-        <v>14.176985742499401</v>
+        <v>13.776079583564901</v>
       </c>
       <c r="I57" s="18">
-        <v>12548.5</v>
+        <v>4572.2486284425704</v>
       </c>
       <c r="J57" s="18">
-        <v>3304.81</v>
+        <v>3517.32</v>
       </c>
       <c r="K57" s="18">
-        <v>6401.2654957566001</v>
+        <v>3299.0854829593</v>
       </c>
       <c r="L57" s="18">
-        <v>24311</v>
+        <v>23809</v>
       </c>
       <c r="M57" s="19">
-        <v>46565.575495756602</v>
+        <v>35197.654111401898</v>
       </c>
       <c r="N57" s="19">
-        <v>56447.138118845302</v>
+        <v>61733.427300146701</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
@@ -3928,40 +3928,40 @@
         <v>124</v>
       </c>
       <c r="C58" s="21">
-        <v>7.05059396567653</v>
+        <v>-0.8164925664546</v>
       </c>
       <c r="D58" s="22">
-        <v>4.2920040277013296</v>
+        <v>6.1235627359936</v>
       </c>
       <c r="E58" s="22">
-        <v>3.6468896628231802</v>
+        <v>4.1703831875964799</v>
       </c>
       <c r="F58" s="22">
-        <v>10.4437531611501</v>
+        <v>10.695920173543399</v>
       </c>
       <c r="G58" s="23">
-        <v>25.433240817351201</v>
+        <v>20.173373530678901</v>
       </c>
       <c r="H58" s="23">
-        <v>17.5257172138874</v>
+        <v>14.0859459922653</v>
       </c>
       <c r="I58" s="24">
-        <v>1639.1465677629401</v>
+        <v>-192.52146792306999</v>
       </c>
       <c r="J58" s="24">
-        <v>997.82</v>
+        <v>1443.88</v>
       </c>
       <c r="K58" s="24">
-        <v>847.84157234520001</v>
+        <v>983.33815403129995</v>
       </c>
       <c r="L58" s="24">
-        <v>2428</v>
+        <v>2522</v>
       </c>
       <c r="M58" s="25">
-        <v>5912.8081401081399</v>
+        <v>4756.6966861082301</v>
       </c>
       <c r="N58" s="25">
-        <v>4074.4395945329302</v>
+        <v>3321.3370346914498</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
@@ -3975,37 +3975,37 @@
         <v>0</v>
       </c>
       <c r="D59" s="22">
-        <v>12.4348521688601</v>
+        <v>14.1129480462094</v>
       </c>
       <c r="E59" s="22">
-        <v>5.3320565560120103</v>
+        <v>8.7268448079362102</v>
       </c>
       <c r="F59" s="22">
-        <v>1.5177589465102099</v>
+        <v>1.4714832148274299</v>
       </c>
       <c r="G59" s="23">
-        <v>19.284667671382302</v>
+        <v>24.311276068973001</v>
       </c>
       <c r="H59" s="23">
-        <v>2.2337759755904698</v>
+        <v>3.8703626638752202</v>
       </c>
       <c r="I59" s="24">
         <v>0</v>
       </c>
       <c r="J59" s="24">
-        <v>507.96</v>
+        <v>594.64</v>
       </c>
       <c r="K59" s="24">
-        <v>217.81291899670001</v>
+        <v>367.7</v>
       </c>
       <c r="L59" s="24">
         <v>62</v>
       </c>
       <c r="M59" s="25">
-        <v>787.77291899670001</v>
+        <v>1024.3399999999999</v>
       </c>
       <c r="N59" s="25">
-        <v>91.249081947465797</v>
+        <v>163.07524458470101</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4016,40 +4016,40 @@
         <v>128</v>
       </c>
       <c r="C60" s="16">
-        <v>1.4951766211859201</v>
+        <v>1.8835534333959001</v>
       </c>
       <c r="D60" s="16">
-        <v>5.5394818969125996</v>
+        <v>7.5395843113926801</v>
       </c>
       <c r="E60" s="16">
-        <v>-3.4224039295086</v>
+        <v>2.4418736479747598</v>
       </c>
       <c r="F60" s="16">
-        <v>8.41662343936793</v>
+        <v>8.3891200977062503</v>
       </c>
       <c r="G60" s="17">
-        <v>12.0288780279578</v>
+        <v>20.2541314904696</v>
       </c>
       <c r="H60" s="17">
-        <v>14.5886471479417</v>
+        <v>15.6709999595983</v>
       </c>
       <c r="I60" s="18">
-        <v>80.118192409650007</v>
+        <v>102.83169896819</v>
       </c>
       <c r="J60" s="18">
-        <v>296.83</v>
+        <v>411.62</v>
       </c>
       <c r="K60" s="18">
-        <v>-183.38757618509999</v>
+        <v>133.31292409060001</v>
       </c>
       <c r="L60" s="18">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="M60" s="19">
-        <v>644.56061622455002</v>
+        <v>1105.76462305879</v>
       </c>
       <c r="N60" s="19">
-        <v>781.72439471948201</v>
+        <v>855.55074881553605</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4060,40 +4060,40 @@
         <v>129</v>
       </c>
       <c r="C61" s="30">
-        <v>2.8017013928304002</v>
+        <v>1.1882042798643899</v>
       </c>
       <c r="D61" s="30">
-        <v>2.0577867056669099</v>
+        <v>2.2427775751260901</v>
       </c>
       <c r="E61" s="30">
-        <v>2.0255475576257198</v>
+        <v>1.4796712752882299</v>
       </c>
       <c r="F61" s="30">
-        <v>5.4097142505390901</v>
+        <v>4.8958179320768904</v>
       </c>
       <c r="G61" s="31">
-        <v>12.2947499066621</v>
+        <v>9.8064710623555893</v>
       </c>
       <c r="H61" s="31">
-        <v>14.5678695614583</v>
+        <v>14.0435992236548</v>
       </c>
       <c r="I61" s="32">
-        <v>17431.157820553701</v>
+        <v>7938.9425065769601</v>
       </c>
       <c r="J61" s="32">
-        <v>13155.83</v>
+        <v>14854.67</v>
       </c>
       <c r="K61" s="32">
-        <v>12943.9551290454</v>
+        <v>9985.1407416929997</v>
       </c>
       <c r="L61" s="32">
-        <v>34132</v>
+        <v>33846</v>
       </c>
       <c r="M61" s="33">
-        <v>77662.942949599106</v>
+        <v>66624.753248270004</v>
       </c>
       <c r="N61" s="33">
-        <v>92449.8342154438</v>
+        <v>96554.505860364705</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4104,40 +4104,40 @@
         <v>130</v>
       </c>
       <c r="C62" s="36">
-        <v>1.8520132213032601</v>
+        <v>0.80449246773879002</v>
       </c>
       <c r="D62" s="36">
-        <v>2.0670058073480599</v>
+        <v>2.1723840175073299</v>
       </c>
       <c r="E62" s="36">
-        <v>2.3343062905904701</v>
+        <v>1.9840423128410001</v>
       </c>
       <c r="F62" s="36">
-        <v>4.3247668509379897</v>
+        <v>3.98687290361439</v>
       </c>
       <c r="G62" s="37">
-        <v>10.578092170179801</v>
+        <v>8.9477917017015098</v>
       </c>
       <c r="H62" s="37">
-        <v>19.1366261962606</v>
+        <v>18.793461244571901</v>
       </c>
       <c r="I62" s="38">
-        <v>36458.370089992</v>
+        <v>19679.471359576299</v>
       </c>
       <c r="J62" s="38">
-        <v>48396.67</v>
+        <v>52880.62</v>
       </c>
       <c r="K62" s="38">
-        <v>50576.531925073097</v>
+        <v>45368.123482841998</v>
       </c>
       <c r="L62" s="38">
-        <v>84340</v>
+        <v>85870</v>
       </c>
       <c r="M62" s="39">
-        <v>219771.572015065</v>
+        <v>203798.214842418</v>
       </c>
       <c r="N62" s="39">
-        <v>427802.90537102602</v>
+        <v>436959.03500862798</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4148,40 +4148,40 @@
         <v>131</v>
       </c>
       <c r="C63" s="36">
-        <v>1.1155556007463301</v>
+        <v>1.1255634983406899</v>
       </c>
       <c r="D63" s="36">
-        <v>0.24592871848341999</v>
+        <v>0.23448398543283999</v>
       </c>
       <c r="E63" s="36">
-        <v>1.7076576888380199</v>
+        <v>1.7771553821442401</v>
       </c>
       <c r="F63" s="36">
-        <v>1.14478568116483</v>
+        <v>1.1623391666020999</v>
       </c>
       <c r="G63" s="37">
-        <v>4.2139276892325999</v>
+        <v>4.2995420325198603</v>
       </c>
       <c r="H63" s="37">
-        <v>22.597819631137799</v>
+        <v>22.858933360302</v>
       </c>
       <c r="I63" s="38">
-        <v>1156204.3427458799</v>
+        <v>1121488.6716590701</v>
       </c>
       <c r="J63" s="38">
-        <v>59835.34</v>
+        <v>57668.57</v>
       </c>
       <c r="K63" s="38">
-        <v>1331150.7915503299</v>
+        <v>1416660.12657633</v>
       </c>
       <c r="L63" s="38">
-        <v>603001</v>
+        <v>623148</v>
       </c>
       <c r="M63" s="39">
-        <v>3150191.4742962099</v>
+        <v>3218965.3682354102</v>
       </c>
       <c r="N63" s="39">
-        <v>14980565.019264</v>
+        <v>15317860.091228001</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.35">
@@ -4192,40 +4192,40 @@
         <v>132</v>
       </c>
       <c r="C64" s="42">
-        <v>0.55488066415382997</v>
+        <v>0.21019541303219</v>
       </c>
       <c r="D64" s="42">
-        <v>0.18329552482547001</v>
+        <v>0.16368490433697999</v>
       </c>
       <c r="E64" s="42">
-        <v>2.8434131174914099</v>
+        <v>3.1592879635965798</v>
       </c>
       <c r="F64" s="42">
-        <v>1.8900410041552</v>
+        <v>2.0433700618256601</v>
       </c>
       <c r="G64" s="43">
-        <v>5.4716303106259101</v>
+        <v>5.5765383427914204</v>
       </c>
       <c r="H64" s="43">
-        <v>20.164345330421401</v>
+        <v>19.622102756173099</v>
       </c>
       <c r="I64" s="44">
-        <v>26889.302123619698</v>
+        <v>11880.280384235801</v>
       </c>
       <c r="J64" s="44">
-        <v>8724.98</v>
+        <v>7427.34</v>
       </c>
       <c r="K64" s="44">
-        <v>150636.10192798899</v>
+        <v>165627.58917652199</v>
       </c>
       <c r="L64" s="44">
-        <v>89907</v>
+        <v>97267</v>
       </c>
       <c r="M64" s="45">
-        <v>276157.38405160903</v>
+        <v>282202.20956075698</v>
       </c>
       <c r="N64" s="45">
-        <v>939338.37254963606</v>
+        <v>906818.70005010697</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.35">
@@ -4236,40 +4236,40 @@
         <v>133</v>
       </c>
       <c r="C65" s="47">
-        <v>0.65182355380426005</v>
+        <v>0.69122261039003996</v>
       </c>
       <c r="D65" s="47">
-        <v>0.23707744146045001</v>
+        <v>0.23303262725033999</v>
       </c>
       <c r="E65" s="47">
-        <v>1.39806394170527</v>
+        <v>1.37278072694649</v>
       </c>
       <c r="F65" s="47">
-        <v>1.9274412791897899</v>
+        <v>1.9240975299810601</v>
       </c>
       <c r="G65" s="43">
-        <v>4.2144062161597704</v>
+        <v>4.2211334945679297</v>
       </c>
       <c r="H65" s="43">
-        <v>24.910738810122201</v>
+        <v>25.748195194014301</v>
       </c>
       <c r="I65" s="48">
-        <v>166824.37736488401</v>
+        <v>171122.56823946201</v>
       </c>
       <c r="J65" s="48">
-        <v>43551.63</v>
+        <v>43593.45</v>
       </c>
       <c r="K65" s="48">
-        <v>263067.05235940201</v>
+        <v>269039.79773412901</v>
       </c>
       <c r="L65" s="48">
-        <v>301870</v>
+        <v>313933</v>
       </c>
       <c r="M65" s="45">
-        <v>775313.05972428597</v>
+        <v>797688.81597359094</v>
       </c>
       <c r="N65" s="45">
-        <v>1708665.05057583</v>
+        <v>1872788.7143276699</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4280,40 +4280,40 @@
         <v>134</v>
       </c>
       <c r="C66" s="42">
-        <v>1.1513757578163</v>
+        <v>1.1098889793253699</v>
       </c>
       <c r="D66" s="42">
-        <v>0.42927556427900998</v>
+        <v>0.42844357080952</v>
       </c>
       <c r="E66" s="42">
-        <v>1.7379848146997201</v>
+        <v>1.78720354639497</v>
       </c>
       <c r="F66" s="42">
-        <v>1.3003604550807299</v>
+        <v>1.3010864452276301</v>
       </c>
       <c r="G66" s="43">
-        <v>4.6189965918757601</v>
+        <v>4.6266225417575004</v>
       </c>
       <c r="H66" s="43">
-        <v>22.391420013624199</v>
+        <v>22.613351676440001</v>
       </c>
       <c r="I66" s="44">
-        <v>1192662.71283587</v>
+        <v>1141168.1430186499</v>
       </c>
       <c r="J66" s="44">
-        <v>108232.01</v>
+        <v>110549.19</v>
       </c>
       <c r="K66" s="44">
-        <v>1381727.3234754</v>
+        <v>1462028.25005918</v>
       </c>
       <c r="L66" s="44">
-        <v>687341</v>
+        <v>709018</v>
       </c>
       <c r="M66" s="45">
-        <v>3369963.04631127</v>
+        <v>3422763.58307782</v>
       </c>
       <c r="N66" s="45">
-        <v>15408367.924635001</v>
+        <v>15754819.126236601</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.35">
@@ -4324,40 +4324,40 @@
         <v>135</v>
       </c>
       <c r="C67" s="50">
-        <v>2.1201356952350698</v>
+        <v>0.49417773430900003</v>
       </c>
       <c r="D67" s="50">
-        <v>2.7974853311729202</v>
+        <v>2.91742474465733</v>
       </c>
       <c r="E67" s="50">
-        <v>3.1063313223410298</v>
+        <v>2.7256079228776899</v>
       </c>
       <c r="F67" s="50">
-        <v>6.2686683857831396</v>
+        <v>5.6878419359284997</v>
       </c>
       <c r="G67" s="51">
-        <v>14.2926207345322</v>
+        <v>11.825052337772499</v>
       </c>
       <c r="H67" s="51">
-        <v>18.793538781237</v>
+        <v>17.959858565496599</v>
       </c>
       <c r="I67" s="52">
-        <v>9240.7021774023797</v>
+        <v>2957.4889624047</v>
       </c>
       <c r="J67" s="52">
-        <v>23490.99</v>
+        <v>26134.19</v>
       </c>
       <c r="K67" s="52">
-        <v>19468.548953103302</v>
+        <v>19006.4253437072</v>
       </c>
       <c r="L67" s="52">
-        <v>37530</v>
+        <v>39569</v>
       </c>
       <c r="M67" s="53">
-        <v>89730.241130505703</v>
+        <v>87667.104306111898</v>
       </c>
       <c r="N67" s="53">
-        <v>120987.37297160699</v>
+        <v>130844.545213691</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.35">
@@ -4368,40 +4368,40 @@
         <v>136</v>
       </c>
       <c r="C68" s="47">
-        <v>2.9102115456668902</v>
+        <v>0.98021025947516005</v>
       </c>
       <c r="D68" s="47">
-        <v>1.74853485076503</v>
+        <v>1.8800670576335301</v>
       </c>
       <c r="E68" s="47">
-        <v>2.69980435498442</v>
+        <v>2.1818349469635598</v>
       </c>
       <c r="F68" s="47">
-        <v>6.74789300222736</v>
+        <v>6.0978364978869202</v>
       </c>
       <c r="G68" s="43">
-        <v>14.106443753643701</v>
+        <v>11.1399487619592</v>
       </c>
       <c r="H68" s="43">
-        <v>17.2897626657568</v>
+        <v>16.703951968772198</v>
       </c>
       <c r="I68" s="48">
-        <v>28872.778370254098</v>
+        <v>12085.8164218361</v>
       </c>
       <c r="J68" s="48">
-        <v>21372.880000000001</v>
+        <v>23894.29</v>
       </c>
       <c r="K68" s="48">
-        <v>28464.8629993084</v>
+        <v>24204.0941003722</v>
       </c>
       <c r="L68" s="48">
-        <v>68484</v>
+        <v>69558</v>
       </c>
       <c r="M68" s="45">
-        <v>147194.52136956301</v>
+        <v>129742.200522208</v>
       </c>
       <c r="N68" s="45">
-        <v>185368.468312112</v>
+        <v>198751.392128034</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.35">
@@ -4412,40 +4412,40 @@
         <v>137</v>
       </c>
       <c r="C69" s="47">
-        <v>0.79947916210692005</v>
+        <v>0.43528488786406999</v>
       </c>
       <c r="D69" s="47">
-        <v>5.1541669885259198</v>
+        <v>5.32820089824639</v>
       </c>
       <c r="E69" s="47">
-        <v>2.1604561137649099</v>
+        <v>2.01797465668789</v>
       </c>
       <c r="F69" s="47">
-        <v>3.0624148084205798</v>
+        <v>2.9263415364126399</v>
       </c>
       <c r="G69" s="43">
-        <v>11.176517072818299</v>
+        <v>10.707801979211</v>
       </c>
       <c r="H69" s="43">
-        <v>14.941650015403701</v>
+        <v>16.816627304419299</v>
       </c>
       <c r="I69" s="48">
-        <v>1603.2916374291201</v>
+        <v>962.49291228279003</v>
       </c>
       <c r="J69" s="48">
-        <v>10037.48</v>
+        <v>11169.43</v>
       </c>
       <c r="K69" s="48">
-        <v>4180.3044546747997</v>
+        <v>4149.9715038819004</v>
       </c>
       <c r="L69" s="48">
-        <v>6047</v>
+        <v>6274</v>
       </c>
       <c r="M69" s="45">
-        <v>21868.0760921039</v>
+        <v>22555.894416164701</v>
       </c>
       <c r="N69" s="45">
-        <v>29397.490732411101</v>
+        <v>35666.336035706401</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.35">
@@ -4456,40 +4456,40 @@
         <v>138</v>
       </c>
       <c r="C70" s="47">
-        <v>1.31840695093056</v>
+        <v>0.58477591842442</v>
       </c>
       <c r="D70" s="47">
-        <v>2.9489045909829499</v>
+        <v>3.2915078891696701</v>
       </c>
       <c r="E70" s="47">
-        <v>0.69651874635621003</v>
+        <v>1.4338529891731699</v>
       </c>
       <c r="F70" s="47">
-        <v>1.0776401273053999</v>
+        <v>1.15653993290676</v>
       </c>
       <c r="G70" s="43">
-        <v>6.0414704155751204</v>
+        <v>6.4666767296740097</v>
       </c>
       <c r="H70" s="43">
-        <v>21.825179369113599</v>
+        <v>19.767387820792301</v>
       </c>
       <c r="I70" s="48">
-        <v>3504.7087441404701</v>
+        <v>1343.7212340460901</v>
       </c>
       <c r="J70" s="48">
-        <v>7257.69</v>
+        <v>8070.65</v>
       </c>
       <c r="K70" s="48">
-        <v>2908.8215944086</v>
+        <v>4603.8987756167999</v>
       </c>
       <c r="L70" s="48">
-        <v>2504</v>
+        <v>2751</v>
       </c>
       <c r="M70" s="45">
-        <v>16175.220338549099</v>
+        <v>16769.270009662901</v>
       </c>
       <c r="N70" s="45">
-        <v>57368.364627746101</v>
+        <v>47593.508479041702</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.35">
@@ -4500,40 +4500,40 @@
         <v>139</v>
       </c>
       <c r="C71" s="47">
-        <v>2.8017013928304002</v>
+        <v>1.1882042798643899</v>
       </c>
       <c r="D71" s="47">
-        <v>2.0577867056669099</v>
+        <v>2.2427775751260901</v>
       </c>
       <c r="E71" s="47">
-        <v>2.0255475576257198</v>
+        <v>1.4796712752882299</v>
       </c>
       <c r="F71" s="47">
-        <v>5.4097142505390901</v>
+        <v>4.8958179320768904</v>
       </c>
       <c r="G71" s="43">
-        <v>12.2947499066621</v>
+        <v>9.8064710623555893</v>
       </c>
       <c r="H71" s="43">
-        <v>14.5678695614583</v>
+        <v>14.0435992236548</v>
       </c>
       <c r="I71" s="48">
-        <v>17431.157820553701</v>
+        <v>7938.9425065769601</v>
       </c>
       <c r="J71" s="48">
-        <v>13155.83</v>
+        <v>14854.67</v>
       </c>
       <c r="K71" s="48">
-        <v>12943.9551290454</v>
+        <v>9985.1407416929997</v>
       </c>
       <c r="L71" s="48">
-        <v>34132</v>
+        <v>33846</v>
       </c>
       <c r="M71" s="45">
-        <v>77662.942949599106</v>
+        <v>66624.753248270004</v>
       </c>
       <c r="N71" s="45">
-        <v>92449.8342154438</v>
+        <v>96554.505860364705</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.35">
@@ -4544,40 +4544,40 @@
         <v>140</v>
       </c>
       <c r="C72" s="47">
-        <v>0.53948849908824004</v>
+        <v>0.29273768463876998</v>
       </c>
       <c r="D72" s="47">
-        <v>5.2068968995845104</v>
+        <v>5.7807077526848598</v>
       </c>
       <c r="E72" s="47">
-        <v>3.16650165935408</v>
+        <v>2.4760263821483002</v>
       </c>
       <c r="F72" s="47">
-        <v>2.25926209214269</v>
+        <v>2.2087850201552102</v>
       </c>
       <c r="G72" s="43">
-        <v>11.172149150169499</v>
+        <v>10.7582568396271</v>
       </c>
       <c r="H72" s="43">
-        <v>17.5094683850437</v>
+        <v>18.5709659922273</v>
       </c>
       <c r="I72" s="48">
-        <v>1612.86638278788</v>
+        <v>953.23837003057997</v>
       </c>
       <c r="J72" s="48">
-        <v>13759.24</v>
+        <v>16085.88</v>
       </c>
       <c r="K72" s="48">
-        <v>7826.5144851697996</v>
+        <v>6654.0245636719001</v>
       </c>
       <c r="L72" s="48">
-        <v>6246</v>
+        <v>6545</v>
       </c>
       <c r="M72" s="45">
-        <v>29444.620867957699</v>
+        <v>30238.1429337025</v>
       </c>
       <c r="N72" s="45">
-        <v>43507.359159568703</v>
+        <v>50466.300322445903</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
@@ -4588,40 +4588,40 @@
         <v>141</v>
       </c>
       <c r="C73" s="47">
-        <v>0.80242848205106998</v>
+        <v>0.94358373877593005</v>
       </c>
       <c r="D73" s="47">
-        <v>1.9319336320695499</v>
+        <v>1.9534472817691499</v>
       </c>
       <c r="E73" s="47">
-        <v>0.95477034794867</v>
+        <v>0.99628320882901</v>
       </c>
       <c r="F73" s="47">
-        <v>1.0348238982895901</v>
+        <v>1.0812736748912599</v>
       </c>
       <c r="G73" s="43">
-        <v>4.7239563603588799</v>
+        <v>4.97458790426536</v>
       </c>
       <c r="H73" s="43">
-        <v>18.636298723912599</v>
+        <v>18.198899770700599</v>
       </c>
       <c r="I73" s="48">
-        <v>5968.0203057624703</v>
+        <v>6617.8015402979499</v>
       </c>
       <c r="J73" s="48">
-        <v>12308.48</v>
+        <v>12558.1</v>
       </c>
       <c r="K73" s="48">
-        <v>5466.0701705913998</v>
+        <v>6305.4696409053004</v>
       </c>
       <c r="L73" s="48">
-        <v>7094</v>
+        <v>7385</v>
       </c>
       <c r="M73" s="45">
-        <v>30836.5704763539</v>
+        <v>32866.3711812033</v>
       </c>
       <c r="N73" s="45">
-        <v>128485.907452416</v>
+        <v>118446.50238356501</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4632,40 +4632,40 @@
         <v>142</v>
       </c>
       <c r="C74" s="42">
-        <v>-0.17854995100990001</v>
+        <v>0.26482112094127003</v>
       </c>
       <c r="D74" s="42">
-        <v>0.69213221869486996</v>
+        <v>0.74185590185081995</v>
       </c>
       <c r="E74" s="42">
-        <v>1.9900385103937901</v>
+        <v>1.44282848702262</v>
       </c>
       <c r="F74" s="42">
-        <v>3.0004902512862799</v>
+        <v>3.0366174897843101</v>
       </c>
       <c r="G74" s="43">
-        <v>5.5041110293650801</v>
+        <v>5.4861229995990097</v>
       </c>
       <c r="H74" s="43">
-        <v>27.609206478111499</v>
+        <v>28.659587775993302</v>
       </c>
       <c r="I74" s="44">
-        <v>-653.18316325254</v>
+        <v>1062.9739152591801</v>
       </c>
       <c r="J74" s="44">
-        <v>2517.8200000000002</v>
+        <v>2645.8</v>
       </c>
       <c r="K74" s="44">
-        <v>6833.7941327376002</v>
+        <v>4711.1110133174998</v>
       </c>
       <c r="L74" s="44">
-        <v>10673</v>
+        <v>10641</v>
       </c>
       <c r="M74" s="45">
-        <v>19371.4309694851</v>
+        <v>19060.884928576699</v>
       </c>
       <c r="N74" s="45">
-        <v>93870.462123133693</v>
+        <v>96594.931531524999</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.35">
@@ -4676,40 +4676,40 @@
         <v>143</v>
       </c>
       <c r="C75" s="50">
-        <v>0.30874244115642002</v>
+        <v>0.78126982304629999</v>
       </c>
       <c r="D75" s="50">
-        <v>0.24384795018109001</v>
+        <v>0.19773214801396999</v>
       </c>
       <c r="E75" s="50">
-        <v>3.9371695827548501</v>
+        <v>3.8114269108935299</v>
       </c>
       <c r="F75" s="50">
-        <v>2.61658501505014</v>
+        <v>2.5194008521323199</v>
       </c>
       <c r="G75" s="51">
-        <v>7.1063449891424897</v>
+        <v>7.3098297340861302</v>
       </c>
       <c r="H75" s="51">
-        <v>25.946531761616999</v>
+        <v>26.001159771514899</v>
       </c>
       <c r="I75" s="52">
-        <v>4872.3785092227099</v>
+        <v>20645.130234746499</v>
       </c>
       <c r="J75" s="52">
-        <v>5722.78</v>
+        <v>4733.3599999999997</v>
       </c>
       <c r="K75" s="52">
-        <v>148884.93772664401</v>
+        <v>155725.92570952699</v>
       </c>
       <c r="L75" s="52">
-        <v>74688</v>
+        <v>76779</v>
       </c>
       <c r="M75" s="53">
-        <v>234168.09623586599</v>
+        <v>257883.415944273</v>
       </c>
       <c r="N75" s="53">
-        <v>800599.23559549602</v>
+        <v>847449.51929360896</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.35">
@@ -4720,40 +4720,40 @@
         <v>144</v>
       </c>
       <c r="C76" s="47">
-        <v>0.41084953867447999</v>
+        <v>-0.39198433140069999</v>
       </c>
       <c r="D76" s="47">
-        <v>0.15363857802361999</v>
+        <v>0.13068419809048001</v>
       </c>
       <c r="E76" s="47">
-        <v>2.7494354319301699</v>
+        <v>3.32240890915054</v>
       </c>
       <c r="F76" s="47">
-        <v>0.58411756879849996</v>
+        <v>0.63813878716531003</v>
       </c>
       <c r="G76" s="43">
-        <v>3.8980411174267702</v>
+        <v>3.6992475630056099</v>
       </c>
       <c r="H76" s="43">
-        <v>20.124406963029902</v>
+        <v>19.0443372639551</v>
       </c>
       <c r="I76" s="48">
-        <v>13598.119900456601</v>
+        <v>-10905.005920527999</v>
       </c>
       <c r="J76" s="48">
-        <v>4300.41</v>
+        <v>3478.63</v>
       </c>
       <c r="K76" s="48">
-        <v>100656.57016622</v>
+        <v>117184.62253581799</v>
       </c>
       <c r="L76" s="48">
-        <v>18923</v>
+        <v>19857</v>
       </c>
       <c r="M76" s="45">
-        <v>137478.100066677</v>
+        <v>129615.246615289</v>
       </c>
       <c r="N76" s="45">
-        <v>611711.78347558901</v>
+        <v>565116.31693898397</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4764,40 +4764,40 @@
         <v>145</v>
       </c>
       <c r="C77" s="42">
-        <v>1.2686352909724199</v>
+        <v>1.5283798294620901</v>
       </c>
       <c r="D77" s="42" t="s">
         <v>23</v>
       </c>
       <c r="E77" s="42">
-        <v>2.2783421677102602</v>
+        <v>2.4553962351974699</v>
       </c>
       <c r="F77" s="42">
-        <v>0.91826053648021</v>
+        <v>0.92593613363583005</v>
       </c>
       <c r="G77" s="43" t="s">
         <v>23</v>
       </c>
       <c r="H77" s="43">
-        <v>21.678600111114601</v>
+        <v>21.908983838483501</v>
       </c>
       <c r="I77" s="44">
-        <v>249087.768442359</v>
+        <v>280276.983037194</v>
       </c>
       <c r="J77" s="44" t="s">
         <v>23</v>
       </c>
       <c r="K77" s="44">
-        <v>349816.96609514102</v>
+        <v>387758.92922412202</v>
       </c>
       <c r="L77" s="44">
-        <v>131341</v>
+        <v>129947</v>
       </c>
       <c r="M77" s="45" t="s">
         <v>23</v>
       </c>
       <c r="N77" s="45">
-        <v>3493808.36512776</v>
+        <v>3457123.1315513002</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.35">
@@ -4808,40 +4808,40 @@
         <v>146</v>
       </c>
       <c r="C78" s="50">
-        <v>1.8591891428238001</v>
+        <v>0.80868555047585</v>
       </c>
       <c r="D78" s="50">
-        <v>1.21316808268504</v>
+        <v>1.2388492198599601</v>
       </c>
       <c r="E78" s="50">
-        <v>1.4800339618993701</v>
+        <v>1.21533115834517</v>
       </c>
       <c r="F78" s="50">
-        <v>3.8559899785759</v>
+        <v>3.51162553798265</v>
       </c>
       <c r="G78" s="51">
-        <v>8.4083811659841103</v>
+        <v>6.7744914666636298</v>
       </c>
       <c r="H78" s="51">
-        <v>22.093952398289002</v>
+        <v>21.417526658933699</v>
       </c>
       <c r="I78" s="52">
-        <v>16825.305285345701</v>
+        <v>7689.3834137306303</v>
       </c>
       <c r="J78" s="52">
-        <v>12044.25</v>
+        <v>12849.75</v>
       </c>
       <c r="K78" s="52">
-        <v>13912.3924468901</v>
+        <v>12368.4211840483</v>
       </c>
       <c r="L78" s="52">
-        <v>33384</v>
+        <v>33156</v>
       </c>
       <c r="M78" s="53">
-        <v>76165.9477322358</v>
+        <v>66063.554597778901</v>
       </c>
       <c r="N78" s="53">
-        <v>199169.25590171199</v>
+        <v>192523.60849228199</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.35">
@@ -4852,40 +4852,40 @@
         <v>147</v>
       </c>
       <c r="C79" s="47">
-        <v>0.36396393071911998</v>
+        <v>0.87700136631512005</v>
       </c>
       <c r="D79" s="47">
-        <v>1.0586500223078099</v>
+        <v>0.89697308070265003</v>
       </c>
       <c r="E79" s="47">
-        <v>0.99239879138107001</v>
+        <v>1.59151145541733</v>
       </c>
       <c r="F79" s="47">
-        <v>0.70639193139489997</v>
+        <v>0.74823165924125001</v>
       </c>
       <c r="G79" s="43">
-        <v>3.1214046758029101</v>
+        <v>4.1137175616763502</v>
       </c>
       <c r="H79" s="43">
-        <v>25.331051567823799</v>
+        <v>23.517769913095702</v>
       </c>
       <c r="I79" s="48">
-        <v>28441.1643281818</v>
+        <v>45880.194619217698</v>
       </c>
       <c r="J79" s="48">
-        <v>13195.7</v>
+        <v>10339.540000000001</v>
       </c>
       <c r="K79" s="48">
-        <v>47945.353634283601</v>
+        <v>76051.116260463707</v>
       </c>
       <c r="L79" s="48">
-        <v>25937</v>
+        <v>28034</v>
       </c>
       <c r="M79" s="45">
-        <v>115519.217962465</v>
+        <v>160304.85087968101</v>
       </c>
       <c r="N79" s="45">
-        <v>1219359.49642675</v>
+        <v>1151613.2524828799</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
@@ -4896,40 +4896,40 @@
         <v>148</v>
       </c>
       <c r="C80" s="47">
-        <v>1.8478877056032601</v>
+        <v>0.80212454325816995</v>
       </c>
       <c r="D80" s="47">
-        <v>2.5717895421284398</v>
+        <v>2.7159377774406201</v>
       </c>
       <c r="E80" s="47">
-        <v>2.8008755532742402</v>
+        <v>2.3959566659630398</v>
       </c>
       <c r="F80" s="47">
-        <v>4.5863214342924303</v>
+        <v>4.2475262785775403</v>
       </c>
       <c r="G80" s="43">
-        <v>11.8068742352984</v>
+        <v>10.1615452652394</v>
       </c>
       <c r="H80" s="43">
-        <v>17.4208714823557</v>
+        <v>17.3001144712408</v>
       </c>
       <c r="I80" s="48">
-        <v>19633.064804646299</v>
+        <v>11990.0879458457</v>
       </c>
       <c r="J80" s="48">
-        <v>36352.42</v>
+        <v>40030.870000000003</v>
       </c>
       <c r="K80" s="48">
-        <v>36664.139478183002</v>
+        <v>32999.702298793702</v>
       </c>
       <c r="L80" s="48">
-        <v>50956</v>
+        <v>52714</v>
       </c>
       <c r="M80" s="45">
-        <v>143605.624282829</v>
+        <v>137734.660244639</v>
       </c>
       <c r="N80" s="45">
-        <v>228633.64946931301</v>
+        <v>244435.42651634599</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4940,40 +4940,40 @@
         <v>149</v>
       </c>
       <c r="C81" s="42">
-        <v>1.18799179948719</v>
+        <v>1.14874928871152</v>
       </c>
       <c r="D81" s="42">
-        <v>0.19811711626937001</v>
+        <v>0.19846324253601</v>
       </c>
       <c r="E81" s="42">
-        <v>1.7765285111775799</v>
+        <v>1.79445534694419</v>
       </c>
       <c r="F81" s="42">
-        <v>1.1842892623697201</v>
+        <v>1.1984006061879899</v>
       </c>
       <c r="G81" s="43">
-        <v>4.3469266893038503</v>
+        <v>4.3400684843797102</v>
       </c>
       <c r="H81" s="43">
-        <v>22.268416945487999</v>
+        <v>22.783103888071601</v>
       </c>
       <c r="I81" s="44">
-        <v>1127763.1784176901</v>
+        <v>1075608.4770398501</v>
       </c>
       <c r="J81" s="44">
-        <v>46639.64</v>
+        <v>47329.030000000101</v>
       </c>
       <c r="K81" s="44">
-        <v>1283205.43791605</v>
+        <v>1340609.0103158699</v>
       </c>
       <c r="L81" s="44">
-        <v>577064</v>
+        <v>595114</v>
       </c>
       <c r="M81" s="45">
-        <v>3034672.25633374</v>
+        <v>3058660.51735572</v>
       </c>
       <c r="N81" s="45">
-        <v>13761205.522837199</v>
+        <v>14166246.8387451</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.35">
@@ -4984,40 +4984,40 @@
         <v>150</v>
       </c>
       <c r="C82" s="50">
-        <v>9.2427940552620005E-2</v>
+        <v>0.15121694090276999</v>
       </c>
       <c r="D82" s="50">
-        <v>7.2926995023971397</v>
+        <v>7.8420335490097797</v>
       </c>
       <c r="E82" s="50">
-        <v>3.9217514812666998</v>
+        <v>3.3149619701746098</v>
       </c>
       <c r="F82" s="50">
-        <v>2.6388283843054898</v>
+        <v>2.6770303710146499</v>
       </c>
       <c r="G82" s="51">
-        <v>13.945707308522</v>
+        <v>13.9852428311018</v>
       </c>
       <c r="H82" s="51">
-        <v>14.5191823291294</v>
+        <v>14.7985356562509</v>
       </c>
       <c r="I82" s="52">
-        <v>358.29981279822499</v>
+        <v>568.79580353596998</v>
       </c>
       <c r="J82" s="52">
-        <v>26671.51</v>
+        <v>29700.240000000002</v>
       </c>
       <c r="K82" s="52">
-        <v>11836.097213176399</v>
+        <v>10730.976708644201</v>
       </c>
       <c r="L82" s="52">
-        <v>9609</v>
+        <v>10198</v>
       </c>
       <c r="M82" s="53">
-        <v>48474.9070259746</v>
+        <v>51198.012512180198</v>
       </c>
       <c r="N82" s="53">
-        <v>47658.177570339598</v>
+        <v>52237.600571128998</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.35">
@@ -5028,40 +5028,40 @@
         <v>151</v>
       </c>
       <c r="C83" s="47">
-        <v>2.2676276009679999E-2</v>
+        <v>0</v>
       </c>
       <c r="D83" s="47">
-        <v>21.5157046088062</v>
+        <v>17.209037154439901</v>
       </c>
       <c r="E83" s="47">
-        <v>0.74005301576618998</v>
+        <v>6.7422742145350004E-2</v>
       </c>
       <c r="F83" s="47">
-        <v>15.0954373780857</v>
+        <v>15.741690348074799</v>
       </c>
       <c r="G83" s="43">
-        <v>37.373871278667799</v>
+        <v>33.018150244659999</v>
       </c>
       <c r="H83" s="43">
-        <v>12.614008459916899</v>
+        <v>10.891769641939099</v>
       </c>
       <c r="I83" s="48">
-        <v>17.43</v>
+        <v>0</v>
       </c>
       <c r="J83" s="48">
-        <v>23289.3</v>
+        <v>20175.07</v>
       </c>
       <c r="K83" s="48">
-        <v>302.75191913010002</v>
+        <v>-18.8803058329</v>
       </c>
       <c r="L83" s="48">
-        <v>11523</v>
+        <v>11819</v>
       </c>
       <c r="M83" s="45">
-        <v>35132.481919130099</v>
+        <v>31975.1896941671</v>
       </c>
       <c r="N83" s="45">
-        <v>7879.0110263213401</v>
+        <v>6941.0222528058102</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.35">
@@ -5072,40 +5072,40 @@
         <v>152</v>
       </c>
       <c r="C84" s="47">
-        <v>2.4979934507747599</v>
+        <v>0.85853329084492003</v>
       </c>
       <c r="D84" s="47">
-        <v>1.25870027416193</v>
+        <v>1.2550948133214399</v>
       </c>
       <c r="E84" s="47">
-        <v>2.1132100416593498</v>
+        <v>1.7553102841787001</v>
       </c>
       <c r="F84" s="47">
-        <v>5.5151742918016504</v>
+        <v>5.00252196424929</v>
       </c>
       <c r="G84" s="43">
-        <v>11.385078058397699</v>
+        <v>8.8714603525943598</v>
       </c>
       <c r="H84" s="43">
-        <v>21.3464690698883</v>
+        <v>20.597908448114801</v>
       </c>
       <c r="I84" s="48">
-        <v>33493.493558206501</v>
+        <v>13828.945869728401</v>
       </c>
       <c r="J84" s="48">
-        <v>20072.27</v>
+        <v>21472.66</v>
       </c>
       <c r="K84" s="48">
-        <v>30581.866369294901</v>
+        <v>27165.8896644618</v>
       </c>
       <c r="L84" s="48">
-        <v>73430</v>
+        <v>74310</v>
       </c>
       <c r="M84" s="45">
-        <v>157577.629927501</v>
+        <v>136777.49553419001</v>
       </c>
       <c r="N84" s="45">
-        <v>319113.26930880098</v>
+        <v>322811.85961630801</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.35">
@@ -5116,40 +5116,40 @@
         <v>153</v>
       </c>
       <c r="C85" s="47">
-        <v>0.15736097941096</v>
+        <v>0.25809941366326999</v>
       </c>
       <c r="D85" s="47">
-        <v>0.41178021084999999</v>
+        <v>0.47683034510422001</v>
       </c>
       <c r="E85" s="47">
-        <v>1.91613205335821</v>
+        <v>1.9694272459640501</v>
       </c>
       <c r="F85" s="47">
-        <v>4.8346586911535798</v>
+        <v>4.8554385055169602</v>
       </c>
       <c r="G85" s="43">
-        <v>7.3199319347727601</v>
+        <v>7.5597955102485104</v>
       </c>
       <c r="H85" s="43">
-        <v>24.3035337467755</v>
+        <v>26.158396611423999</v>
       </c>
       <c r="I85" s="48">
-        <v>7265.2938298813997</v>
+        <v>12947.614481074699</v>
       </c>
       <c r="J85" s="48">
-        <v>19646.939999999999</v>
+        <v>23385.11</v>
       </c>
       <c r="K85" s="48">
-        <v>87874.178903090098</v>
+        <v>94056.722096001904</v>
       </c>
       <c r="L85" s="48">
-        <v>221872</v>
+        <v>234474</v>
       </c>
       <c r="M85" s="45">
-        <v>336658.41273297201</v>
+        <v>364863.44657707697</v>
       </c>
       <c r="N85" s="45">
-        <v>1085309.3955234301</v>
+        <v>1230349.7189082501</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.35">
@@ -5160,40 +5160,40 @@
         <v>154</v>
       </c>
       <c r="C86" s="47">
-        <v>1.57797056677678</v>
+        <v>1.4896619370950199</v>
       </c>
       <c r="D86" s="47">
-        <v>0.33276624796998</v>
+        <v>0.37455783465885001</v>
       </c>
       <c r="E86" s="47">
-        <v>1.7642010731029001</v>
+        <v>1.6535514971001399</v>
       </c>
       <c r="F86" s="47">
-        <v>0.24727656722736999</v>
+        <v>0.25531437828384002</v>
       </c>
       <c r="G86" s="43">
-        <v>3.9222144550770399</v>
+        <v>3.77308564713785</v>
       </c>
       <c r="H86" s="43">
-        <v>13.564332537315</v>
+        <v>14.4238507421565</v>
       </c>
       <c r="I86" s="48">
-        <v>6781.2036370038104</v>
+        <v>6118.0640874363198</v>
       </c>
       <c r="J86" s="48">
-        <v>1584.25</v>
+        <v>1685.54</v>
       </c>
       <c r="K86" s="48">
-        <v>7667.5266253178997</v>
+        <v>6873.4146449371001</v>
       </c>
       <c r="L86" s="48">
-        <v>1033</v>
+        <v>1019</v>
       </c>
       <c r="M86" s="45">
-        <v>17065.9802623217</v>
+        <v>15696.018732373401</v>
       </c>
       <c r="N86" s="45">
-        <v>58443.913210654398</v>
+        <v>59401.955233340901</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.35">
@@ -5204,40 +5204,40 @@
         <v>155</v>
       </c>
       <c r="C87" s="47">
-        <v>0.57665901636240002</v>
+        <v>0.68981085542595</v>
       </c>
       <c r="D87" s="47">
-        <v>8.9912630089700005E-2</v>
+        <v>7.0604302832129998E-2</v>
       </c>
       <c r="E87" s="47">
-        <v>1.5547129792419401</v>
+        <v>1.61177901427743</v>
       </c>
       <c r="F87" s="47">
-        <v>0.91702203029496998</v>
+        <v>0.91958155837088995</v>
       </c>
       <c r="G87" s="43">
-        <v>3.1383066559890098</v>
+        <v>3.2917757309064002</v>
       </c>
       <c r="H87" s="43">
-        <v>22.598991437811101</v>
+        <v>22.2794436577834</v>
       </c>
       <c r="I87" s="48">
-        <v>163831.60372071099</v>
+        <v>177867.01389789701</v>
       </c>
       <c r="J87" s="48">
-        <v>16727.2</v>
+        <v>13930.22</v>
       </c>
       <c r="K87" s="48">
-        <v>359531.20521881402</v>
+        <v>383299.50557447301</v>
       </c>
       <c r="L87" s="48">
-        <v>203368</v>
+        <v>211747</v>
       </c>
       <c r="M87" s="45">
-        <v>743458.008939525</v>
+        <v>786843.73947237001</v>
       </c>
       <c r="N87" s="45">
-        <v>2127442.79206547</v>
+        <v>2146183.4290351002</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5248,40 +5248,40 @@
         <v>156</v>
       </c>
       <c r="C88" s="42">
-        <v>1.74279621654275</v>
+        <v>1.6756789662468701</v>
       </c>
       <c r="D88" s="42">
-        <v>0.21533311405085001</v>
+        <v>0.18285626794716001</v>
       </c>
       <c r="E88" s="42">
-        <v>1.77661008174565</v>
+        <v>1.86305752458508</v>
       </c>
       <c r="F88" s="42">
-        <v>0.36894827500110999</v>
+        <v>0.37252294206657999</v>
       </c>
       <c r="G88" s="43">
-        <v>4.1036876873403596</v>
+        <v>4.0941157008457001</v>
       </c>
       <c r="H88" s="43">
-        <v>22.213096825560299</v>
+        <v>22.287502512478198</v>
       </c>
       <c r="I88" s="44">
-        <v>980915.38827726699</v>
+        <v>929837.70887897594</v>
       </c>
       <c r="J88" s="44">
-        <v>240.54</v>
+        <v>200.35</v>
       </c>
       <c r="K88" s="44">
-        <v>883933.69722657802</v>
+        <v>939920.62167649099</v>
       </c>
       <c r="L88" s="44">
-        <v>166506</v>
+        <v>165451</v>
       </c>
       <c r="M88" s="45">
-        <v>2031595.6255038499</v>
+        <v>2035409.6805554701</v>
       </c>
       <c r="N88" s="45">
-        <v>11762521.36593</v>
+        <v>11936893.540619699</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.35">
@@ -5292,40 +5292,40 @@
         <v>157</v>
       </c>
       <c r="C89" s="50">
-        <v>0.78879430726753996</v>
+        <v>0.35630546928161999</v>
       </c>
       <c r="D89" s="50">
-        <v>5.6516878213826098</v>
+        <v>6.02770874975959</v>
       </c>
       <c r="E89" s="50">
-        <v>2.1390084338943001</v>
+        <v>2.14897979047295</v>
       </c>
       <c r="F89" s="50">
-        <v>2.2922128278752698</v>
+        <v>2.3276251955529199</v>
       </c>
       <c r="G89" s="51">
-        <v>10.8717033904197</v>
+        <v>10.860619205067101</v>
       </c>
       <c r="H89" s="51">
-        <v>19.7598482713829</v>
+        <v>18.955607761744599</v>
       </c>
       <c r="I89" s="52">
-        <v>5387.1551325124801</v>
+        <v>2155.0546739144002</v>
       </c>
       <c r="J89" s="52">
-        <v>32775.99</v>
+        <v>35885.54</v>
       </c>
       <c r="K89" s="52">
-        <v>8995.6511786071005</v>
+        <v>10961.736914797</v>
       </c>
       <c r="L89" s="52">
-        <v>13603</v>
+        <v>14225</v>
       </c>
       <c r="M89" s="53">
-        <v>60761.7963111196</v>
+        <v>63227.3315887114</v>
       </c>
       <c r="N89" s="53">
-        <v>118321.277217198</v>
+        <v>111344.669851782</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.35">
@@ -5336,40 +5336,40 @@
         <v>158</v>
       </c>
       <c r="C90" s="47">
-        <v>5.5015579433700001E-2</v>
+        <v>-8.0519518102999996E-2</v>
       </c>
       <c r="D90" s="47">
-        <v>4.5044240310639303</v>
+        <v>4.1724260259029204</v>
       </c>
       <c r="E90" s="47">
-        <v>2.5914708041471202</v>
+        <v>1.7796740008082099</v>
       </c>
       <c r="F90" s="47">
-        <v>7.5181814946657504</v>
+        <v>7.5433796947037699</v>
       </c>
       <c r="G90" s="43">
-        <v>14.669091909310501</v>
+        <v>13.4149602033119</v>
       </c>
       <c r="H90" s="43">
-        <v>27.603945101937502</v>
+        <v>28.4908412376802</v>
       </c>
       <c r="I90" s="48">
-        <v>267.43</v>
+        <v>-482.8860273889</v>
       </c>
       <c r="J90" s="48">
-        <v>21033.66</v>
+        <v>19811.22</v>
       </c>
       <c r="K90" s="48">
-        <v>11819.9487305819</v>
+        <v>8707.1734851428992</v>
       </c>
       <c r="L90" s="48">
-        <v>36318</v>
+        <v>38934</v>
       </c>
       <c r="M90" s="45">
-        <v>69439.038730581902</v>
+        <v>66969.507457754007</v>
       </c>
       <c r="N90" s="45">
-        <v>122620.088071815</v>
+        <v>136585.711089572</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.35">
@@ -5380,40 +5380,40 @@
         <v>159</v>
       </c>
       <c r="C91" s="47">
-        <v>-21.802419051123</v>
+        <v>-4.3848544452393003</v>
       </c>
       <c r="D91" s="47">
-        <v>2.5259208840212999</v>
+        <v>2.3962363027066398</v>
       </c>
       <c r="E91" s="47">
-        <v>3.0362369222461401</v>
+        <v>3.7292448725738301</v>
       </c>
       <c r="F91" s="47">
-        <v>4.0424236928181596</v>
+        <v>4.30068117219444</v>
       </c>
       <c r="G91" s="43">
-        <v>-12.197837552037999</v>
+        <v>6.0413079022355998</v>
       </c>
       <c r="H91" s="43">
-        <v>15.7540894257347</v>
+        <v>15.894793525455301</v>
       </c>
       <c r="I91" s="48">
-        <v>-4174.5355731372001</v>
+        <v>-836.33440112436006</v>
       </c>
       <c r="J91" s="48">
-        <v>443.53</v>
+        <v>424.84</v>
       </c>
       <c r="K91" s="48">
-        <v>654.63237396609998</v>
+        <v>797.75735841619996</v>
       </c>
       <c r="L91" s="48">
-        <v>810</v>
+        <v>856</v>
       </c>
       <c r="M91" s="45">
-        <v>-2266.3731991711002</v>
+        <v>1242.2629572918399</v>
       </c>
       <c r="N91" s="45">
-        <v>3340.9003995458002</v>
+        <v>3344.4427006785099</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.35">
@@ -5424,40 +5424,40 @@
         <v>160</v>
       </c>
       <c r="C92" s="47">
-        <v>0.59934203923213003</v>
+        <v>0.45137926835192999</v>
       </c>
       <c r="D92" s="47">
-        <v>1.75904333349411</v>
+        <v>1.6558704045357</v>
       </c>
       <c r="E92" s="47">
-        <v>13.3384828589378</v>
+        <v>15.1080139922664</v>
       </c>
       <c r="F92" s="47">
-        <v>3.1237856026107602</v>
+        <v>3.3363723549250999</v>
       </c>
       <c r="G92" s="43">
-        <v>18.8206538342748</v>
+        <v>20.551636020079101</v>
       </c>
       <c r="H92" s="43">
-        <v>31.682517398105201</v>
+        <v>31.296986720565599</v>
       </c>
       <c r="I92" s="48">
-        <v>1870.3913900269399</v>
+        <v>1769.2229921723499</v>
       </c>
       <c r="J92" s="48">
-        <v>4318.54</v>
+        <v>3903.55</v>
       </c>
       <c r="K92" s="48">
-        <v>88763.564637346193</v>
+        <v>101626.034460422</v>
       </c>
       <c r="L92" s="48">
-        <v>14221</v>
+        <v>15050</v>
       </c>
       <c r="M92" s="45">
-        <v>109173.496027373</v>
+        <v>122348.807452594</v>
       </c>
       <c r="N92" s="45">
-        <v>183814.57545290201</v>
+        <v>182673.46181604901</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.35">
@@ -5468,40 +5468,40 @@
         <v>161</v>
       </c>
       <c r="C93" s="47">
-        <v>4.2925283288830003E-2</v>
+        <v>5.7099663589000003E-2</v>
       </c>
       <c r="D93" s="47">
-        <v>6.9767198632913097</v>
+        <v>7.0070997644111399</v>
       </c>
       <c r="E93" s="47">
-        <v>3.0869921583915301</v>
+        <v>2.7498523851915802</v>
       </c>
       <c r="F93" s="47">
-        <v>2.9053572523507301</v>
+        <v>2.8701849694011701</v>
       </c>
       <c r="G93" s="43">
-        <v>13.011994557322399</v>
+        <v>12.684236782592899</v>
       </c>
       <c r="H93" s="43">
-        <v>20.521877838942601</v>
+        <v>20.028233877453999</v>
       </c>
       <c r="I93" s="48">
-        <v>122.81345083324</v>
+        <v>135.40135860548</v>
       </c>
       <c r="J93" s="48">
-        <v>18805.27</v>
+        <v>19984.189999999999</v>
       </c>
       <c r="K93" s="48">
-        <v>8195.5702435613002</v>
+        <v>7747.9963487789</v>
       </c>
       <c r="L93" s="48">
-        <v>7845</v>
+        <v>8071</v>
       </c>
       <c r="M93" s="45">
-        <v>34968.653694394503</v>
+        <v>35938.587707384402</v>
       </c>
       <c r="N93" s="45">
-        <v>51315.122038494497</v>
+        <v>52797.600293650103</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5512,40 +5512,40 @@
         <v>162</v>
       </c>
       <c r="C94" s="42">
-        <v>-0.68659602659789998</v>
+        <v>0.23303704425402</v>
       </c>
       <c r="D94" s="42">
-        <v>2.1453330260626702</v>
+        <v>2.4110650582909798</v>
       </c>
       <c r="E94" s="42">
-        <v>2.5480272447071401</v>
+        <v>2.6088028688977301</v>
       </c>
       <c r="F94" s="42">
-        <v>5.7149754689773902</v>
+        <v>5.5333065508189803</v>
       </c>
       <c r="G94" s="43">
-        <v>9.7217397131492707</v>
+        <v>10.7862115222617</v>
       </c>
       <c r="H94" s="43">
-        <v>19.612542407020101</v>
+        <v>21.389974763685601</v>
       </c>
       <c r="I94" s="44">
-        <v>-3612.0366295013</v>
+        <v>1259.8588102353999</v>
       </c>
       <c r="J94" s="44">
-        <v>9249.2800000000007</v>
+        <v>10695.31</v>
       </c>
       <c r="K94" s="44">
-        <v>14024.8355528669</v>
+        <v>14253.7554512844</v>
       </c>
       <c r="L94" s="44">
-        <v>25984</v>
+        <v>26400</v>
       </c>
       <c r="M94" s="45">
-        <v>45646.078923365603</v>
+        <v>52608.924261519802</v>
       </c>
       <c r="N94" s="45">
-        <v>91239.685628899402</v>
+        <v>101904.12761619101</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.35">
@@ -5556,40 +5556,40 @@
         <v>163</v>
       </c>
       <c r="C95" s="50">
-        <v>1.8750354991464999</v>
+        <v>0.73927614570875999</v>
       </c>
       <c r="D95" s="50">
-        <v>2.8277927503351998</v>
+        <v>2.9108824228718602</v>
       </c>
       <c r="E95" s="50">
-        <v>1.73105855000714</v>
+        <v>1.40008226747557</v>
       </c>
       <c r="F95" s="50">
-        <v>3.6081295898324099</v>
+        <v>3.2697937797596501</v>
       </c>
       <c r="G95" s="51">
-        <v>10.0420163893212</v>
+        <v>8.3200346158158407</v>
       </c>
       <c r="H95" s="51">
-        <v>17.946814044049798</v>
+        <v>17.2418402303521</v>
       </c>
       <c r="I95" s="52">
-        <v>19750.061797456401</v>
+        <v>8282.9059811165807</v>
       </c>
       <c r="J95" s="52">
-        <v>29286.54</v>
+        <v>31672.98</v>
       </c>
       <c r="K95" s="52">
-        <v>15944.9607509339</v>
+        <v>14573.4730784203</v>
       </c>
       <c r="L95" s="52">
-        <v>36506</v>
+        <v>36361</v>
       </c>
       <c r="M95" s="53">
-        <v>101487.56254838999</v>
+        <v>90890.359059536902</v>
       </c>
       <c r="N95" s="53">
-        <v>184725.942748031</v>
+        <v>183510.35595057899</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.35">
@@ -5600,40 +5600,40 @@
         <v>164</v>
       </c>
       <c r="C96" s="47">
-        <v>0.18566569782808001</v>
+        <v>-5.4670429952999998E-2</v>
       </c>
       <c r="D96" s="47">
-        <v>0.78316250736613002</v>
+        <v>1.05088946691633</v>
       </c>
       <c r="E96" s="47">
-        <v>1.4950789802012701</v>
+        <v>1.2242187724379301</v>
       </c>
       <c r="F96" s="47">
-        <v>4.5304816699592401</v>
+        <v>5.2369456990638001</v>
       </c>
       <c r="G96" s="43">
-        <v>6.9943888553547202</v>
+        <v>7.4573835084650399</v>
       </c>
       <c r="H96" s="43">
-        <v>24.290462876753601</v>
+        <v>21.6970771997822</v>
       </c>
       <c r="I96" s="48">
-        <v>1877.91007789638</v>
+        <v>163.78798435237999</v>
       </c>
       <c r="J96" s="48">
-        <v>10682.19</v>
+        <v>13493</v>
       </c>
       <c r="K96" s="48">
-        <v>19736.941062983398</v>
+        <v>15900.188404332501</v>
       </c>
       <c r="L96" s="48">
-        <v>60807</v>
+        <v>66520</v>
       </c>
       <c r="M96" s="45">
-        <v>93104.041140879795</v>
+        <v>96076.976388684896</v>
       </c>
       <c r="N96" s="45">
-        <v>325656.43773270003</v>
+        <v>296331.83390402701</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5644,40 +5644,40 @@
         <v>165</v>
       </c>
       <c r="C97" s="55">
-        <v>3.7257652098000001E-3</v>
+        <v>-2.4032113320000001E-4</v>
       </c>
       <c r="D97" s="55">
-        <v>7.08322615851508</v>
+        <v>6.8382105830068198</v>
       </c>
       <c r="E97" s="55">
-        <v>0.96560575545469995</v>
+        <v>0.97120934979048001</v>
       </c>
       <c r="F97" s="55">
-        <v>3.3335842633336501</v>
+        <v>3.5059489287037802</v>
       </c>
       <c r="G97" s="56">
-        <v>11.3861419425132</v>
+        <v>11.3151285403678</v>
       </c>
       <c r="H97" s="56">
-        <v>9.1115842403318492</v>
+        <v>9.6496120026665508</v>
       </c>
       <c r="I97" s="57">
-        <v>15.989064035209999</v>
+        <v>-1.3697066905699999</v>
       </c>
       <c r="J97" s="57">
-        <v>33827.050000000003</v>
+        <v>32507.29</v>
       </c>
       <c r="K97" s="57">
-        <v>3073.0922421801001</v>
+        <v>3394.9661293546001</v>
       </c>
       <c r="L97" s="57">
-        <v>13645</v>
+        <v>14172</v>
       </c>
       <c r="M97" s="58">
-        <v>50561.131306215299</v>
+        <v>50072.886422664</v>
       </c>
       <c r="N97" s="58">
-        <v>33197.247632986298</v>
+        <v>36049.481949319801</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.35">

--- a/AfDD_2021_Annex_Table_Tab22.xlsx
+++ b/AfDD_2021_Annex_Table_Tab22.xlsx
@@ -493,7 +493,7 @@
     <t>ROW, Upper middle income countries</t>
   </si>
   <si>
-    <t>High income countries (no LAC)</t>
+    <t>High income countries</t>
   </si>
   <si>
     <t>Africa, Least Developed Countries</t>

--- a/AfDD_2021_Annex_Table_Tab22.xlsx
+++ b/AfDD_2021_Annex_Table_Tab22.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab22" sheetId="1" r:id="rId1"/>

--- a/AfDD_2021_Annex_Table_Tab22.xlsx
+++ b/AfDD_2021_Annex_Table_Tab22.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab22" sheetId="1" r:id="rId1"/>
